--- a/sem5/geofizyka-l/dane5.xlsx
+++ b/sem5/geofizyka-l/dane5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciejklossek/Documents/geofizyka lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciejklossek/Documents/studia/sem5/geofizyka-l/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F1573-247A-064E-91C6-AEE813E2BDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1DFA5-C643-BC47-8622-51B8C215A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane5" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -85,15 +85,33 @@
   <si>
     <t>delta gb</t>
   </si>
+  <si>
+    <t>Roznica h</t>
+  </si>
+  <si>
+    <t>poprawka</t>
+  </si>
+  <si>
+    <t>g0''</t>
+  </si>
+  <si>
+    <t>delta g0''</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -105,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,15 +131,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +213,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -283,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -467,7 +503,7 @@
     <col min="7" max="1025" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,11 +552,23 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>468</v>
       </c>
@@ -578,8 +626,26 @@
         <f>P2-J2</f>
         <v>29.03333521517925</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R2">
+        <v>0.7601232069225432</v>
+      </c>
+      <c r="S2">
+        <v>0.13357583039784579</v>
+      </c>
+      <c r="T2">
+        <f>S2+K2-N2</f>
+        <v>21.86799443499876</v>
+      </c>
+      <c r="U2">
+        <f>D2+T2</f>
+        <v>981214.05311839643</v>
+      </c>
+      <c r="V2">
+        <f>U2-J2</f>
+        <v>29.166911045555025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>469</v>
       </c>
@@ -637,8 +703,26 @@
         <f t="shared" ref="Q3:Q66" si="8">P3-J3</f>
         <v>25.787368588731624</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R3">
+        <v>12.10344033484216</v>
+      </c>
+      <c r="S3">
+        <v>0.77093920540240124</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="9">S3+K3-N3</f>
+        <v>23.227306397725727</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="10">D3+T3</f>
+        <v>981209.43483292742</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="11">U3-J3</f>
+        <v>26.558307794155553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>470</v>
       </c>
@@ -696,8 +780,26 @@
         <f t="shared" si="8"/>
         <v>24.547893431852572</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R4">
+        <v>1.4746979932169779</v>
+      </c>
+      <c r="S4">
+        <v>1.135488823985308</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="9"/>
+        <v>22.287272459406161</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="10"/>
+        <v>981209.97318097157</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="11"/>
+        <v>25.683382255840115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>471</v>
       </c>
@@ -755,8 +857,26 @@
         <f t="shared" si="8"/>
         <v>33.2857275379356</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R5">
+        <v>23.103233961035581</v>
+      </c>
+      <c r="S5">
+        <v>1.755044405189248</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>31.996060700293182</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="10"/>
+        <v>981220.72265930544</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="11"/>
+        <v>35.040771943051368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>472</v>
       </c>
@@ -814,8 +934,26 @@
         <f t="shared" si="8"/>
         <v>28.722474826616235</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R6">
+        <v>20.19114451820133</v>
+      </c>
+      <c r="S6">
+        <v>0.90964541688295275</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>25.510532916882951</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="10"/>
+        <v>981215.90809296409</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="11"/>
+        <v>29.632120243506506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>473</v>
       </c>
@@ -873,8 +1011,26 @@
         <f t="shared" si="8"/>
         <v>28.799854379147291</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R7">
+        <v>5.9728501012864541</v>
+      </c>
+      <c r="S7">
+        <v>0.74497101918685493</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>25.820967730174061</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="10"/>
+        <v>981216.13384707225</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>29.544825398246758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>474</v>
       </c>
@@ -932,8 +1088,26 @@
         <f t="shared" si="8"/>
         <v>27.116615714272484</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R8">
+        <v>3.8965278299310739</v>
+      </c>
+      <c r="S8">
+        <v>0.32683281624475069</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>25.572205204851912</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="10"/>
+        <v>981215.21595920797</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="11"/>
+        <v>27.443448530510068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>475</v>
       </c>
@@ -991,8 +1165,26 @@
         <f t="shared" si="8"/>
         <v>26.315764376777224</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R9">
+        <v>13.098498235041919</v>
+      </c>
+      <c r="S9">
+        <v>0.85137995210663098</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>26.509460037734698</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="10"/>
+        <v>981217.55273233436</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="11"/>
+        <v>27.16714432882145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>476</v>
       </c>
@@ -1050,8 +1242,26 @@
         <f t="shared" si="8"/>
         <v>25.189267624635249</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R10">
+        <v>8.0657684450452507</v>
+      </c>
+      <c r="S10">
+        <v>0.35432505605888093</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>23.56461915911801</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="10"/>
+        <v>981213.64587761404</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="11"/>
+        <v>25.543592680711299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>477</v>
       </c>
@@ -1109,8 +1319,26 @@
         <f t="shared" si="8"/>
         <v>24.821134698111564</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R11">
+        <v>3.970757555927364</v>
+      </c>
+      <c r="S11">
+        <v>0.56808880788144667</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>22.925725390823878</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="10"/>
+        <v>981213.5215616558</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="11"/>
+        <v>25.389223505975679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>478</v>
       </c>
@@ -1168,8 +1396,26 @@
         <f t="shared" si="8"/>
         <v>27.191747840261087</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R12">
+        <v>4.6218243837283808</v>
+      </c>
+      <c r="S12">
+        <v>0.35373563389360019</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>25.741851533893598</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="10"/>
+        <v>981215.34859622957</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="11"/>
+        <v>27.545483474154025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>481</v>
       </c>
@@ -1227,8 +1473,26 @@
         <f t="shared" si="8"/>
         <v>13.112412603921257</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R13">
+        <v>0.79034509119082941</v>
+      </c>
+      <c r="S13">
+        <v>0.69951064441910782</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>19.199378044419106</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="10"/>
+        <v>981218.44143915118</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="11"/>
+        <v>13.811923248344101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>485</v>
       </c>
@@ -1286,8 +1550,26 @@
         <f t="shared" si="8"/>
         <v>28.489019912201911</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R14">
+        <v>0.98686410562442006</v>
+      </c>
+      <c r="S14">
+        <v>1.132989727756764</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>32.37742406442419</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="10"/>
+        <v>981215.18555814819</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="11"/>
+        <v>29.622009639977477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>486</v>
       </c>
@@ -1345,8 +1627,26 @@
         <f t="shared" si="8"/>
         <v>16.221707554534078</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R15">
+        <v>0.55317807563554311</v>
+      </c>
+      <c r="S15">
+        <v>0.1786416842063914</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>21.745982937882459</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="10"/>
+        <v>981205.71690547268</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="11"/>
+        <v>16.400349238771014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>488</v>
       </c>
@@ -1404,8 +1704,26 @@
         <f t="shared" si="8"/>
         <v>14.869743805844337</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16">
+        <v>2.128106647453023</v>
+      </c>
+      <c r="S16">
+        <v>0.33417690632788771</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>21.660674880447299</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="10"/>
+        <v>981204.32752839918</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="11"/>
+        <v>15.203920712228864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>492</v>
       </c>
@@ -1463,8 +1781,26 @@
         <f t="shared" si="8"/>
         <v>20.018388010561466</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R17">
+        <v>10.16635432049338</v>
+      </c>
+      <c r="S17">
+        <v>1.086994905077769</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>25.061848952879142</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="10"/>
+        <v>981207.52776736021</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="11"/>
+        <v>21.105382915702648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>919</v>
       </c>
@@ -1522,8 +1858,26 @@
         <f t="shared" si="8"/>
         <v>26.356329025235027</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R18">
+        <v>3.0618092183256072</v>
+      </c>
+      <c r="S18">
+        <v>0.45714289796698943</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>26.106787999175154</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>981214.8118125014</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="11"/>
+        <v>26.81347192323301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>920</v>
       </c>
@@ -1581,8 +1935,26 @@
         <f t="shared" si="8"/>
         <v>24.915628136601299</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R19">
+        <v>8.7094524230287789</v>
+      </c>
+      <c r="S19">
+        <v>1.05981401548553</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>24.010480903255527</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="10"/>
+        <v>981210.0364412627</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="11"/>
+        <v>25.975442152004689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>842</v>
       </c>
@@ -1640,8 +2012,26 @@
         <f t="shared" si="8"/>
         <v>8.5915786704281345</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20">
+        <v>4.2217453907214804</v>
+      </c>
+      <c r="S20">
+        <v>0.83346807757638997</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>25.367755338416369</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="10"/>
+        <v>981215.05228762969</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="11"/>
+        <v>9.4250467480160296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>845</v>
       </c>
@@ -1699,8 +2089,26 @@
         <f t="shared" si="8"/>
         <v>22.810791683965363</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R21">
+        <v>9.0004171897984691</v>
+      </c>
+      <c r="S21">
+        <v>0.71433700853411342</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>36.75022609264083</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="10"/>
+        <v>981223.17404619837</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="11"/>
+        <v>23.52512869250495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>846</v>
       </c>
@@ -1758,8 +2166,26 @@
         <f t="shared" si="8"/>
         <v>14.074268890894018</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R22">
+        <v>3.7548987783278851</v>
+      </c>
+      <c r="S22">
+        <v>0.43378759870207378</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="9"/>
+        <v>30.360259391144538</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="10"/>
+        <v>981216.31764690077</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="11"/>
+        <v>14.508056489634328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>847</v>
       </c>
@@ -1817,8 +2243,26 @@
         <f t="shared" si="8"/>
         <v>21.365989853395149</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R23">
+        <v>15.973801768453111</v>
+      </c>
+      <c r="S23">
+        <v>1.5080615539242059</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>32.76004450851147</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="10"/>
+        <v>981220.83589013782</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="11"/>
+        <v>22.874051407328807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>848</v>
       </c>
@@ -1876,8 +2320,26 @@
         <f t="shared" si="8"/>
         <v>17.278877610107884</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R24">
+        <v>19.524058378670471</v>
+      </c>
+      <c r="S24">
+        <v>1.3392971600750101</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>32.253021599655966</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="10"/>
+        <v>981219.77612534841</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="11"/>
+        <v>18.618174770148471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>849</v>
       </c>
@@ -1935,8 +2397,26 @@
         <f t="shared" si="8"/>
         <v>10.37422445579432</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R25">
+        <v>12.47592748716491</v>
+      </c>
+      <c r="S25">
+        <v>0.94110104458971522</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>27.116445344589714</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="10"/>
+        <v>981214.37213129224</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="11"/>
+        <v>11.315325500443578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>850</v>
       </c>
@@ -1994,8 +2474,26 @@
         <f t="shared" si="8"/>
         <v>18.81309627846349</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R26">
+        <v>7.188319540025816</v>
+      </c>
+      <c r="S26">
+        <v>1.102276725243766</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>30.033173999773563</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="10"/>
+        <v>981224.06748864823</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="11"/>
+        <v>19.915373003692366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>851</v>
       </c>
@@ -2053,8 +2551,26 @@
         <f t="shared" si="8"/>
         <v>13.893668647157028</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0.3564635045730602</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>19.840366404573061</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="10"/>
+        <v>981216.13547826721</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="11"/>
+        <v>14.250132151762955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>852</v>
       </c>
@@ -2112,8 +2628,26 @@
         <f t="shared" si="8"/>
         <v>15.587634727940895</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R28">
+        <v>6.7303654800635258</v>
+      </c>
+      <c r="S28">
+        <v>0.40520809229839488</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="9"/>
+        <v>21.225705216676033</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="10"/>
+        <v>981212.10424707597</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="11"/>
+        <v>15.992842820240185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>853</v>
       </c>
@@ -2171,8 +2705,26 @@
         <f t="shared" si="8"/>
         <v>18.37071903666947</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R29">
+        <v>8.1829176778992547</v>
+      </c>
+      <c r="S29">
+        <v>1.21911661185674</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="9"/>
+        <v>27.591268011856741</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="10"/>
+        <v>981217.22169521032</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="11"/>
+        <v>19.589835648541339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>854</v>
       </c>
@@ -2230,8 +2782,26 @@
         <f t="shared" si="8"/>
         <v>16.491897086845711</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R30">
+        <v>1.806798771725894</v>
+      </c>
+      <c r="S30">
+        <v>0.1623840729226666</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>19.252672772922665</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="10"/>
+        <v>981209.97912184475</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="11"/>
+        <v>16.654281159862876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>855</v>
       </c>
@@ -2289,8 +2859,26 @@
         <f t="shared" si="8"/>
         <v>18.39186039136257</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R31">
+        <v>3.9501434151898711</v>
+      </c>
+      <c r="S31">
+        <v>0.49192952869413059</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>22.474788416640642</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="10"/>
+        <v>981213.3555031924</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="11"/>
+        <v>18.883789920015261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>856</v>
       </c>
@@ -2348,8 +2936,26 @@
         <f t="shared" si="8"/>
         <v>14.315237136324868</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R32">
+        <v>4.336738730316938</v>
+      </c>
+      <c r="S32">
+        <v>0.30006851053084582</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>19.717206541166416</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="10"/>
+        <v>981211.04864940338</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="11"/>
+        <v>14.615305646904744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>857</v>
       </c>
@@ -2407,8 +3013,26 @@
         <f t="shared" si="8"/>
         <v>26.27723036671523</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R33">
+        <v>23.243973703464011</v>
+      </c>
+      <c r="S33">
+        <v>1.7048556010375731</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>38.125780585222245</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="10"/>
+        <v>981227.54449620191</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="11"/>
+        <v>27.982085967785679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>858</v>
       </c>
@@ -2466,8 +3090,26 @@
         <f t="shared" si="8"/>
         <v>23.01451019954402</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R34">
+        <v>1.346455209997657</v>
+      </c>
+      <c r="S34">
+        <v>2.2257167753194862</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="9"/>
+        <v>32.230994856707611</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="10"/>
+        <v>981230.44223436411</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="11"/>
+        <v>25.240226974827237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>859</v>
       </c>
@@ -2525,8 +3167,26 @@
         <f t="shared" si="8"/>
         <v>17.475376935326494</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R35">
+        <v>19.617530000784271</v>
+      </c>
+      <c r="S35">
+        <v>1.4440559312861549</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>25.784969103779375</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="10"/>
+        <v>981216.37161572801</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="11"/>
+        <v>18.9194328666199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>860</v>
       </c>
@@ -2584,8 +3244,26 @@
         <f t="shared" si="8"/>
         <v>19.898430478409864</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R36">
+        <v>4.6650400544288004</v>
+      </c>
+      <c r="S36">
+        <v>0.33626710286462852</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="9"/>
+        <v>26.849602291103508</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="10"/>
+        <v>981216.19183159561</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="11"/>
+        <v>20.234697581268847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>887</v>
       </c>
@@ -2643,8 +3321,26 @@
         <f t="shared" si="8"/>
         <v>20.186661918880418</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R37">
+        <v>5.854422495453008</v>
+      </c>
+      <c r="S37">
+        <v>0.56262028884733062</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="9"/>
+        <v>25.32701047012354</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="10"/>
+        <v>981215.34768954711</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="11"/>
+        <v>20.749282207689248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>888</v>
       </c>
@@ -2702,8 +3398,26 @@
         <f t="shared" si="8"/>
         <v>26.788325260509737</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R38">
+        <v>4.0670307112104638</v>
+      </c>
+      <c r="S38">
+        <v>0.82245930201046502</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="9"/>
+        <v>26.420574421894742</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="10"/>
+        <v>981217.19787125033</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="11"/>
+        <v>27.610784562537447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>889</v>
       </c>
@@ -2761,8 +3475,26 @@
         <f t="shared" si="8"/>
         <v>21.074435445363633</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R39">
+        <v>0.8232524523155007</v>
+      </c>
+      <c r="S39">
+        <v>0.45991764386616008</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="9"/>
+        <v>22.502312843866157</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="10"/>
+        <v>981211.60911992961</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="11"/>
+        <v>21.534353089286014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>891</v>
       </c>
@@ -2820,8 +3552,26 @@
         <f t="shared" si="8"/>
         <v>20.088166156201623</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R40">
+        <v>3.4147516918419569</v>
+      </c>
+      <c r="S40">
+        <v>0.2056893775124928</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="9"/>
+        <v>20.476820677512492</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="10"/>
+        <v>981211.92831910728</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="11"/>
+        <v>20.293855533702299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>896</v>
       </c>
@@ -2879,8 +3629,26 @@
         <f t="shared" si="8"/>
         <v>20.850931512308307</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R41">
+        <v>1.0139402191015141</v>
+      </c>
+      <c r="S41">
+        <v>0.18323173576159649</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="9"/>
+        <v>21.4383985357616</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="10"/>
+        <v>981211.66898455704</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="11"/>
+        <v>21.034163248026744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>897</v>
       </c>
@@ -2938,8 +3706,26 @@
         <f t="shared" si="8"/>
         <v>21.394377736956812</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R42">
+        <v>1.487221969913548</v>
+      </c>
+      <c r="S42">
+        <v>0.22724260465180179</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="9"/>
+        <v>23.176106714303991</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="10"/>
+        <v>981213.94252697227</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="11"/>
+        <v>21.621620341553353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>945</v>
       </c>
@@ -2997,8 +3783,26 @@
         <f t="shared" si="8"/>
         <v>15.406317037879489</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R43">
+        <v>1.3913200524584679</v>
+      </c>
+      <c r="S43">
+        <v>0.23150243886777849</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>19.683295325081211</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="10"/>
+        <v>981207.32988190639</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="11"/>
+        <v>15.637819476658478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>949</v>
       </c>
@@ -3056,8 +3860,26 @@
         <f t="shared" si="8"/>
         <v>15.429127463838086</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R44">
+        <v>2.3717686946061178</v>
+      </c>
+      <c r="S44">
+        <v>0.26495717010443248</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="9"/>
+        <v>19.158438770104432</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="10"/>
+        <v>981208.29019602016</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="11"/>
+        <v>15.694084633956663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>962</v>
       </c>
@@ -3115,8 +3937,26 @@
         <f t="shared" si="8"/>
         <v>18.544938981183805</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R45">
+        <v>5.395820628536967</v>
+      </c>
+      <c r="S45">
+        <v>0.49840994216528101</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="9"/>
+        <v>25.599308073122266</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="10"/>
+        <v>981215.81569720397</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="11"/>
+        <v>19.043348923441954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>963</v>
       </c>
@@ -3174,8 +4014,26 @@
         <f t="shared" si="8"/>
         <v>25.532784579554573</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R46">
+        <v>21.475178574081891</v>
+      </c>
+      <c r="S46">
+        <v>1.5872953239834191</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="9"/>
+        <v>31.895867151473574</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="10"/>
+        <v>981223.11420373479</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="11"/>
+        <v>27.120079903514124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>964</v>
       </c>
@@ -3233,8 +4091,26 @@
         <f t="shared" si="8"/>
         <v>22.522970942896791</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R47">
+        <v>9.2049053748341976</v>
+      </c>
+      <c r="S47">
+        <v>1.532446784511043</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="9"/>
+        <v>28.691826584511041</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="10"/>
+        <v>981225.99618359795</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="11"/>
+        <v>24.055417727446184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>965</v>
       </c>
@@ -3292,8 +4168,26 @@
         <f t="shared" si="8"/>
         <v>17.672424782300368</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R48">
+        <v>2.0762041333291559</v>
+      </c>
+      <c r="S48">
+        <v>1.0905548250371351</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="9"/>
+        <v>26.592983692480715</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="10"/>
+        <v>981218.49776674795</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="11"/>
+        <v>18.762979607447051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>979</v>
       </c>
@@ -3351,8 +4245,26 @@
         <f t="shared" si="8"/>
         <v>22.255438720458187</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R49">
+        <v>1.621725984416116</v>
+      </c>
+      <c r="S49">
+        <v>9.8582866910849137E-2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="9"/>
+        <v>26.741988378923274</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="10"/>
+        <v>981225.1967368183</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="11"/>
+        <v>22.354021587409079</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>981</v>
       </c>
@@ -3410,8 +4322,26 @@
         <f t="shared" si="8"/>
         <v>24.526183610898443</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R50">
+        <v>9.4002739202887824</v>
+      </c>
+      <c r="S50">
+        <v>1.035962348402657</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="9"/>
+        <v>26.81769244840266</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="10"/>
+        <v>981229.39238544297</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="11"/>
+        <v>25.562145959236659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>982</v>
       </c>
@@ -3469,8 +4399,26 @@
         <f t="shared" si="8"/>
         <v>17.189009660040028</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R51">
+        <v>7.7186753196609894</v>
+      </c>
+      <c r="S51">
+        <v>0.59619614381888086</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="9"/>
+        <v>17.832323769622242</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="10"/>
+        <v>981218.80297864182</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="11"/>
+        <v>17.78520580381155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>983</v>
       </c>
@@ -3528,8 +4476,26 @@
         <f t="shared" si="8"/>
         <v>16.564747579628602</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R52">
+        <v>3.2075981987400159</v>
+      </c>
+      <c r="S52">
+        <v>0.38405265756859769</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="9"/>
+        <v>18.4903058575686</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="10"/>
+        <v>981213.4203464184</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="11"/>
+        <v>16.948800237267278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>984</v>
       </c>
@@ -3587,8 +4553,26 @@
         <f t="shared" si="8"/>
         <v>25.011095007066615</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R53">
+        <v>14.360572421578039</v>
+      </c>
+      <c r="S53">
+        <v>2.174843339509783</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="9"/>
+        <v>31.263830703085699</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="10"/>
+        <v>981232.42933004408</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="11"/>
+        <v>27.185938346548937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>985</v>
       </c>
@@ -3646,8 +4630,26 @@
         <f t="shared" si="8"/>
         <v>16.005385010386817</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R54">
+        <v>3.414226184953804</v>
+      </c>
+      <c r="S54">
+        <v>0.41384482953553592</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="9"/>
+        <v>20.488169029535534</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="10"/>
+        <v>981219.06200701173</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="11"/>
+        <v>16.419229839928448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>986</v>
       </c>
@@ -3705,8 +4707,26 @@
         <f t="shared" si="8"/>
         <v>17.658252480207011</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R55">
+        <v>3.2055414886490472</v>
+      </c>
+      <c r="S55">
+        <v>0.40915372977079451</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="9"/>
+        <v>18.909021129770792</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="10"/>
+        <v>981217.71746404259</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="11"/>
+        <v>18.067406209884211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>987</v>
       </c>
@@ -3764,8 +4784,26 @@
         <f t="shared" si="8"/>
         <v>14.770409490331076</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0.1471359499268724</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="9"/>
+        <v>18.647003349926873</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="10"/>
+        <v>981215.2930760259</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="11"/>
+        <v>14.917545440257527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>988</v>
       </c>
@@ -3823,8 +4861,26 @@
         <f t="shared" si="8"/>
         <v>15.051792443031445</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>0.22281718392227259</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="9"/>
+        <v>20.297141383922273</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="10"/>
+        <v>981211.09019769798</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="11"/>
+        <v>15.274609626852907</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>989</v>
       </c>
@@ -3882,8 +4938,26 @@
         <f t="shared" si="8"/>
         <v>15.364419189631008</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R58">
+        <v>5.730891907143814</v>
+      </c>
+      <c r="S58">
+        <v>0.39567693555770189</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="9"/>
+        <v>18.895544335557702</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="10"/>
+        <v>981210.32848556212</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="11"/>
+        <v>15.760096125188284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>990</v>
       </c>
@@ -3941,8 +5015,26 @@
         <f t="shared" si="8"/>
         <v>17.63606286176946</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R59">
+        <v>12.74532806396928</v>
+      </c>
+      <c r="S59">
+        <v>0.6060212456599422</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="9"/>
+        <v>20.255948442220134</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="10"/>
+        <v>981210.96012015175</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="11"/>
+        <v>18.242084107478149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>991</v>
       </c>
@@ -4000,8 +5092,26 @@
         <f t="shared" si="8"/>
         <v>14.367156091029756</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R60">
+        <v>4.1077520144517621</v>
+      </c>
+      <c r="S60">
+        <v>0.1648069819947062</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="9"/>
+        <v>18.053046720511293</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="10"/>
+        <v>981211.2988819764</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="11"/>
+        <v>14.531963073066436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>992</v>
       </c>
@@ -4059,8 +5169,26 @@
         <f t="shared" si="8"/>
         <v>21.727738789631985</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R61">
+        <v>27.23910736050664</v>
+      </c>
+      <c r="S61">
+        <v>1.7168518978984599</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="9"/>
+        <v>28.884456800365413</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="10"/>
+        <v>981227.82614881918</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="11"/>
+        <v>23.444590687635355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>993</v>
       </c>
@@ -4118,8 +5246,26 @@
         <f t="shared" si="8"/>
         <v>17.905845138127916</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R62">
+        <v>2.203484778576239</v>
+      </c>
+      <c r="S62">
+        <v>0.2594628528548702</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="9"/>
+        <v>18.75933025285487</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="10"/>
+        <v>981220.41413727798</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="11"/>
+        <v>18.165307990973815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>994</v>
       </c>
@@ -4177,8 +5323,26 @@
         <f t="shared" si="8"/>
         <v>14.590379674104042</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R63">
+        <v>0.2014280685561971</v>
+      </c>
+      <c r="S63">
+        <v>0.19843257661673619</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="9"/>
+        <v>18.107878676616735</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="10"/>
+        <v>981211.73177270638</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="11"/>
+        <v>14.788812250713818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>995</v>
       </c>
@@ -4236,8 +5400,26 @@
         <f t="shared" si="8"/>
         <v>14.339028003509156</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R64">
+        <v>4.2727811698587166</v>
+      </c>
+      <c r="S64">
+        <v>0.29651467134678311</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="9"/>
+        <v>19.726240003979211</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="10"/>
+        <v>981211.01957179478</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="11"/>
+        <v>14.635542674805038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>996</v>
       </c>
@@ -4295,8 +5477,26 @@
         <f t="shared" si="8"/>
         <v>13.971392110572197</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>5.8361699756655762E-2</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="9"/>
+        <v>16.983772299756659</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="10"/>
+        <v>981217.39186023688</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="11"/>
+        <v>14.029753810260445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>997</v>
       </c>
@@ -4354,8 +5554,26 @@
         <f t="shared" si="8"/>
         <v>14.762150107184425</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R66">
+        <v>1.053283053780433</v>
+      </c>
+      <c r="S66">
+        <v>0.70595694244442642</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="9"/>
+        <v>18.615403042444427</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="10"/>
+        <v>981216.03617694031</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="11"/>
+        <v>15.468107049586251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>998</v>
       </c>
@@ -4372,7 +5590,7 @@
         <v>129.99427608171479</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="9">RADIANS(G67)</f>
+        <f t="shared" ref="F67:F130" si="12">RADIANS(G67)</f>
         <v>0.89725338167551927</v>
       </c>
       <c r="G67">
@@ -4382,39 +5600,57 @@
         <v>16.58121382124795</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="10">978032.67715*(1+0.00530244*((SIN(F67))^2)-0.0000058495*(SIN(2*F67))^2)</f>
+        <f t="shared" ref="J67:J130" si="13">978032.67715*(1+0.00530244*((SIN(F67))^2)-0.0000058495*(SIN(2*F67))^2)</f>
         <v>981195.46779359248</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="11">0.3086*E67</f>
+        <f t="shared" ref="K67:K130" si="14">0.3086*E67</f>
         <v>40.116233598817182</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="12">D67+K67</f>
+        <f t="shared" ref="L67:L130" si="15">D67+K67</f>
         <v>981231.67810674082</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="13">L67-J67</f>
+        <f t="shared" ref="M67:M130" si="16">L67-J67</f>
         <v>36.210313148330897</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="14">0.04187*2.67*E67</f>
+        <f t="shared" ref="N67:N130" si="17">0.04187*2.67*E67</f>
         <v>14.53243710657553</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="15">K67-N67</f>
+        <f t="shared" ref="O67:O130" si="18">K67-N67</f>
         <v>25.583796492241653</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="16">D67+O67</f>
+        <f t="shared" ref="P67:P130" si="19">D67+O67</f>
         <v>981217.14566963422</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q130" si="17">P67-J67</f>
+        <f t="shared" ref="Q67:Q130" si="20">P67-J67</f>
         <v>21.677876041736454</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R67">
+        <v>23.768167492316</v>
+      </c>
+      <c r="S67">
+        <v>1.1048069963264791</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T130" si="21">S67+K67-N67</f>
+        <v>26.688603488568134</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="22">D67+T67</f>
+        <v>981218.25047663064</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V130" si="23">U67-J67</f>
+        <v>22.782683038152754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>999</v>
       </c>
@@ -4431,7 +5667,7 @@
         <v>117.9227160693772</v>
       </c>
       <c r="F68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89710869787266634</v>
       </c>
       <c r="G68">
@@ -4441,39 +5677,57 @@
         <v>16.57305894158565</v>
       </c>
       <c r="J68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981194.73542669741</v>
       </c>
       <c r="K68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>36.390950179009806</v>
       </c>
       <c r="L68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981228.90894622682</v>
       </c>
       <c r="M68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.173519529402256</v>
       </c>
       <c r="N68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13.182922405272278</v>
       </c>
       <c r="O68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.208027773737527</v>
       </c>
       <c r="P68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981215.72602382163</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20.99059712421149</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R68">
+        <v>19.838137658789488</v>
+      </c>
+      <c r="S68">
+        <v>1.416642364336264</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="21"/>
+        <v>24.624670138073789</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="22"/>
+        <v>981217.14266618597</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="23"/>
+        <v>22.407239488558844</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1000</v>
       </c>
@@ -4490,7 +5744,7 @@
         <v>96.998788770770716</v>
       </c>
       <c r="F69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89608212879011584</v>
       </c>
       <c r="G69">
@@ -4500,39 +5754,57 @@
         <v>16.536701403385241</v>
       </c>
       <c r="J69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981189.5377405833</v>
       </c>
       <c r="K69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.933826214659842</v>
       </c>
       <c r="L69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981219.05372163549</v>
       </c>
       <c r="M69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.515981052187271</v>
       </c>
       <c r="N69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.843775893171893</v>
       </c>
       <c r="O69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.090050321487951</v>
       </c>
       <c r="P69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981208.20994574239</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18.672205159091391</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R69">
+        <v>1.7809070216721921</v>
+      </c>
+      <c r="S69">
+        <v>0.46274701068008273</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="21"/>
+        <v>19.552797332168034</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="22"/>
+        <v>981208.67269275303</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="23"/>
+        <v>19.134952169726603</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1001</v>
       </c>
@@ -4549,7 +5821,7 @@
         <v>88.206786903982007</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89727035111410347</v>
       </c>
       <c r="G70">
@@ -4559,39 +5831,57 @@
         <v>16.49220391762719</v>
       </c>
       <c r="J70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981195.55368715175</v>
       </c>
       <c r="K70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>27.220614438568845</v>
       </c>
       <c r="L70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.91091809073</v>
       </c>
       <c r="M70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.357230938971043</v>
       </c>
       <c r="N70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.8608925076781695</v>
       </c>
       <c r="O70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17.359721930890675</v>
       </c>
       <c r="P70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981211.05002558313</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>15.49633843137417</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R70">
+        <v>0.79321309601799328</v>
+      </c>
+      <c r="S70">
+        <v>6.6774379520694746E-2</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="21"/>
+        <v>17.42649631041137</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="22"/>
+        <v>981211.11679996259</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="23"/>
+        <v>15.563112810836174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1002</v>
       </c>
@@ -4608,7 +5898,7 @@
         <v>108</v>
       </c>
       <c r="F71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89710254234315345</v>
       </c>
       <c r="G71">
@@ -4618,39 +5908,57 @@
         <v>16.593611879706721</v>
       </c>
       <c r="J71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981194.70426731661</v>
       </c>
       <c r="K71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>33.328800000000001</v>
       </c>
       <c r="L71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.60657391255</v>
       </c>
       <c r="M71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29.902306595933624</v>
       </c>
       <c r="N71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.073633199999998</v>
       </c>
       <c r="O71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.255166800000005</v>
       </c>
       <c r="P71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.53294071252</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17.8286733959103</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R71">
+        <v>11</v>
+      </c>
+      <c r="S71">
+        <v>0.53379083735470478</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="21"/>
+        <v>21.788957637354713</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="22"/>
+        <v>981213.06673154992</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="23"/>
+        <v>18.36246423330158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1003</v>
       </c>
@@ -4667,7 +5975,7 @@
         <v>109.9046107887261</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89730143790848749</v>
       </c>
       <c r="G72">
@@ -4677,39 +5985,57 @@
         <v>16.55190265510852</v>
       </c>
       <c r="J72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981195.71103630331</v>
       </c>
       <c r="K72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>33.916562889400872</v>
       </c>
       <c r="L72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981227.04818928905</v>
       </c>
       <c r="M72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.337152985739522</v>
       </c>
       <c r="N72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.286555163442976</v>
       </c>
       <c r="O72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.630007725957896</v>
       </c>
       <c r="P72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981214.76163412561</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19.050597822293639</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R72">
+        <v>14.838987474500749</v>
+      </c>
+      <c r="S72">
+        <v>1.3423819548482081</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="21"/>
+        <v>22.972389680806103</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="22"/>
+        <v>981216.1040160805</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="23"/>
+        <v>20.392979777185246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1004</v>
       </c>
@@ -4726,7 +6052,7 @@
         <v>105.0318904170077</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89728298763731784</v>
       </c>
       <c r="G73">
@@ -4736,39 +6062,57 @@
         <v>16.529986197018491</v>
       </c>
       <c r="J73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981195.61764853599</v>
       </c>
       <c r="K73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.412841382688576</v>
       </c>
       <c r="L73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981226.05156308773</v>
       </c>
       <c r="M73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.433914551744238</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.741819622199499</v>
       </c>
       <c r="O73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.671021760489076</v>
       </c>
       <c r="P73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981214.30974346551</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18.692094929516315</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R73">
+        <v>15.03189041700772</v>
+      </c>
+      <c r="S73">
+        <v>0.74489090672812164</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="21"/>
+        <v>21.415912667217199</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="22"/>
+        <v>981215.05463437224</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="23"/>
+        <v>19.436985836247914</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1005</v>
       </c>
@@ -4785,7 +6129,7 @@
         <v>100.0797582465641</v>
       </c>
       <c r="F74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89786652723287108</v>
       </c>
       <c r="G74">
@@ -4795,39 +6139,57 @@
         <v>16.52887477172192</v>
       </c>
       <c r="J74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981198.57091524848</v>
       </c>
       <c r="K74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>30.88461339488968</v>
       </c>
       <c r="L74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981226.79793991416</v>
       </c>
       <c r="M74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>28.227024665684439</v>
       </c>
       <c r="N74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.188206405682314</v>
       </c>
       <c r="O74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.696406989207368</v>
       </c>
       <c r="P74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981215.60973350855</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17.03881826007273</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R74">
+        <v>25.682429017389691</v>
+      </c>
+      <c r="S74">
+        <v>1.1411158218254189</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="21"/>
+        <v>20.837522811032784</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="22"/>
+        <v>981216.75084933033</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="23"/>
+        <v>18.179934081854299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1006</v>
       </c>
@@ -4844,7 +6206,7 @@
         <v>153.74963382377251</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89928636614709656</v>
       </c>
       <c r="G75">
@@ -4854,39 +6216,57 @@
         <v>16.619593718043149</v>
       </c>
       <c r="J75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981205.75341422146</v>
       </c>
       <c r="K75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>47.447136998016198</v>
       </c>
       <c r="L75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981252.83639094606</v>
       </c>
       <c r="M75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47.082976724603213</v>
       </c>
       <c r="N75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>17.188117439097617</v>
       </c>
       <c r="O75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30.259019558918581</v>
       </c>
       <c r="P75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981235.6482735069</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.89485928544309</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R75">
+        <v>7.9161824933335652</v>
+      </c>
+      <c r="S75">
+        <v>2.1353190872572489</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="21"/>
+        <v>32.394338646175832</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="22"/>
+        <v>981237.78359259421</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="23"/>
+        <v>32.030178372748196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1007</v>
       </c>
@@ -4903,7 +6283,7 @@
         <v>95.578781341397189</v>
       </c>
       <c r="F76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89810630586159124</v>
       </c>
       <c r="G76">
@@ -4913,39 +6293,57 @@
         <v>16.531827617692841</v>
       </c>
       <c r="J76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981199.78419966821</v>
       </c>
       <c r="K76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.49561192195517</v>
       </c>
       <c r="L76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981226.57351676293</v>
       </c>
       <c r="M76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.7893170947209</v>
       </c>
       <c r="N76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.68502914462068</v>
       </c>
       <c r="O76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.810582777334488</v>
       </c>
       <c r="P76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981215.8884876183</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16.104287950089201</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R76">
+        <v>2.0748639058929261</v>
+      </c>
+      <c r="S76">
+        <v>0.50953968649142145</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="21"/>
+        <v>19.320122463825911</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="22"/>
+        <v>981216.39802730479</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="23"/>
+        <v>16.613827636581846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1008</v>
       </c>
@@ -4962,7 +6360,7 @@
         <v>125.58552682408479</v>
       </c>
       <c r="F77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89883805796769178</v>
       </c>
       <c r="G77">
@@ -4972,39 +6370,57 @@
         <v>16.5788198562852</v>
       </c>
       <c r="J77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981203.48606865248</v>
       </c>
       <c r="K77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>38.755693577912567</v>
       </c>
       <c r="L77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981238.05115075922</v>
       </c>
       <c r="M77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.565082106739283</v>
       </c>
       <c r="N77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.039570241692227</v>
       </c>
       <c r="O77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.716123336220342</v>
       </c>
       <c r="P77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981224.01158051752</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20.525511865038425</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R77">
+        <v>13.585526824084811</v>
+      </c>
+      <c r="S77">
+        <v>0.77969460610192631</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="21"/>
+        <v>25.495817942322269</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="22"/>
+        <v>981224.7912751236</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="23"/>
+        <v>21.305206471122801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1009</v>
       </c>
@@ -5021,7 +6437,7 @@
         <v>105.5446052579538</v>
       </c>
       <c r="F78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.8981131150227909</v>
       </c>
       <c r="G78">
@@ -5031,39 +6447,57 @@
         <v>16.54865283456876</v>
       </c>
       <c r="J78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981199.81865224312</v>
       </c>
       <c r="K78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.571065182604542</v>
       </c>
       <c r="L78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981227.48762141028</v>
       </c>
       <c r="M78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.668969167163596</v>
       </c>
       <c r="N78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.799137501141903</v>
       </c>
       <c r="O78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.771927681462639</v>
       </c>
       <c r="P78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981215.68848390924</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>15.869831666117534</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R78">
+        <v>3.9940488119119522</v>
+      </c>
+      <c r="S78">
+        <v>0.61502239896769928</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="21"/>
+        <v>21.386950080430335</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="22"/>
+        <v>981216.30350630812</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="23"/>
+        <v>16.484854064998217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1010</v>
       </c>
@@ -5080,7 +6514,7 @@
         <v>139.2135675663194</v>
       </c>
       <c r="F79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89835937609161964</v>
       </c>
       <c r="G79">
@@ -5090,39 +6524,57 @@
         <v>16.57270719616039</v>
       </c>
       <c r="J79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981201.06459783472</v>
       </c>
       <c r="K79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>42.961306950966161</v>
       </c>
       <c r="L79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981237.29426617071</v>
       </c>
       <c r="M79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>36.229668335989118</v>
       </c>
       <c r="N79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15.563088437584787</v>
       </c>
       <c r="O79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27.398218513381373</v>
       </c>
       <c r="P79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981221.73117773305</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20.666579898330383</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R79">
+        <v>13.2135675663194</v>
+      </c>
+      <c r="S79">
+        <v>0.68450817270486619</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="21"/>
+        <v>28.082726686086239</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="22"/>
+        <v>981222.41568590573</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="23"/>
+        <v>21.351088071009144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1011</v>
       </c>
@@ -5139,7 +6591,7 @@
         <v>129.07266814178371</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89724659432111387</v>
       </c>
       <c r="G80">
@@ -5149,39 +6601,57 @@
         <v>16.58170890564482</v>
       </c>
       <c r="J80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981195.43343811773</v>
       </c>
       <c r="K80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>39.831825388554449</v>
       </c>
       <c r="L80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981231.41352211963</v>
       </c>
       <c r="M80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.98008400190156</v>
       </c>
       <c r="N80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.42940788230761</v>
       </c>
       <c r="O80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.402417506246842</v>
       </c>
       <c r="P80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981216.98411423725</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.55067611951381</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R80">
+        <v>12.00498811748548</v>
+      </c>
+      <c r="S80">
+        <v>1.1364957948274721</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="21"/>
+        <v>26.538913301074317</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="22"/>
+        <v>981218.12061003211</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="23"/>
+        <v>22.687171914381906</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1012</v>
       </c>
@@ -5198,7 +6668,7 @@
         <v>136.79705622011531</v>
       </c>
       <c r="F81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89861208411311422</v>
       </c>
       <c r="G81">
@@ -5208,39 +6678,57 @@
         <v>16.581887261752271</v>
       </c>
       <c r="J81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981202.34301757428</v>
       </c>
       <c r="K81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>42.215571549527581</v>
       </c>
       <c r="L81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981239.04498919472</v>
       </c>
       <c r="M81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>36.701971620437689</v>
       </c>
       <c r="N81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15.292939626309726</v>
       </c>
       <c r="O81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26.922631923217857</v>
       </c>
       <c r="P81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981223.75204956846</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.409031994175166</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R81">
+        <v>1.8926218625274489</v>
+      </c>
+      <c r="S81">
+        <v>0.69728291371059348</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="21"/>
+        <v>27.619914836928452</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="22"/>
+        <v>981224.44933248218</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="23"/>
+        <v>22.106314907898195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1013</v>
       </c>
@@ -5257,7 +6745,7 @@
         <v>86.027610279561486</v>
       </c>
       <c r="F82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89821601984993937</v>
       </c>
       <c r="G82">
@@ -5267,39 +6755,57 @@
         <v>16.49161535668679</v>
       </c>
       <c r="J82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981200.33931089623</v>
       </c>
       <c r="K82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>26.548120532272673</v>
       </c>
       <c r="L82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.31457931676</v>
       </c>
       <c r="M82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>24.975268420530483</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.6172760332219873</v>
       </c>
       <c r="O82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16.930844499050686</v>
       </c>
       <c r="P82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981215.69730328349</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>15.35799238726031</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R82">
+        <v>0.9723897204385139</v>
+      </c>
+      <c r="S82">
+        <v>5.9970323088297063E-2</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="21"/>
+        <v>16.990814822138983</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="22"/>
+        <v>981215.75727360661</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="23"/>
+        <v>15.417962710373104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1014</v>
       </c>
@@ -5316,7 +6822,7 @@
         <v>97.518173395932521</v>
       </c>
       <c r="F83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89668225611243657</v>
       </c>
       <c r="G83">
@@ -5326,39 +6832,57 @@
         <v>16.389385958951902</v>
       </c>
       <c r="J83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981192.57657027605</v>
       </c>
       <c r="K83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>30.094108309984776</v>
       </c>
       <c r="L83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.52414993045</v>
       </c>
       <c r="M83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.947579654399306</v>
       </c>
       <c r="N83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.901839406634144</v>
       </c>
       <c r="O83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.19226890335063</v>
       </c>
       <c r="P83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981209.62231052388</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17.045740247820504</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R83">
+        <v>4.7033770676553246</v>
+      </c>
+      <c r="S83">
+        <v>0.229631614424985</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="21"/>
+        <v>19.421900517775619</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="22"/>
+        <v>981209.85194213828</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="23"/>
+        <v>17.275371862226166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1015</v>
       </c>
@@ -5375,7 +6899,7 @@
         <v>89</v>
       </c>
       <c r="F84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89728501364534508</v>
       </c>
       <c r="G84">
@@ -5385,39 +6909,57 @@
         <v>16.451556582625471</v>
       </c>
       <c r="J84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981195.62790340208</v>
       </c>
       <c r="K84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>27.465399999999999</v>
       </c>
       <c r="L84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.75454331713</v>
       </c>
       <c r="M84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.126639915048145</v>
       </c>
       <c r="N84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.9495680999999987</v>
       </c>
       <c r="O84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17.515831900000002</v>
       </c>
       <c r="P84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981210.80497521709</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>15.177071815007366</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>0.2369477885174085</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="21"/>
+        <v>17.752779688517407</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="22"/>
+        <v>981211.04192300572</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="23"/>
+        <v>15.414019603631459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1016</v>
       </c>
@@ -5434,7 +6976,7 @@
         <v>97.082433743011066</v>
       </c>
       <c r="F85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89684778026100043</v>
       </c>
       <c r="G85">
@@ -5444,39 +6986,57 @@
         <v>16.44881264155735</v>
       </c>
       <c r="J85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981193.41458297451</v>
       </c>
       <c r="K85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.959639053093213</v>
       </c>
       <c r="L85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.78214034694</v>
       </c>
       <c r="M85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.367557372432202</v>
       </c>
       <c r="N85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.85312680718906</v>
       </c>
       <c r="O85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.106512245904153</v>
       </c>
       <c r="P85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981209.9290135398</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16.514430565293878</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R85">
+        <v>1.8198553413673719</v>
+      </c>
+      <c r="S85">
+        <v>0.2039217103247313</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="21"/>
+        <v>19.310433956228884</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="22"/>
+        <v>981210.13293525006</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="23"/>
+        <v>16.718352275551297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1017</v>
       </c>
@@ -5493,7 +7053,7 @@
         <v>116</v>
       </c>
       <c r="F86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89640647022267905</v>
       </c>
       <c r="G86">
@@ -5503,39 +7063,57 @@
         <v>16.410555147519052</v>
       </c>
       <c r="J86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981191.18018964515</v>
       </c>
       <c r="K86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>35.797599999999996</v>
       </c>
       <c r="L86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981226.55393875786</v>
       </c>
       <c r="M86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.373749112710357</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.967976399999998</v>
       </c>
       <c r="O86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22.829623599999998</v>
       </c>
       <c r="P86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.58596235781</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22.405772712663747</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R86">
+        <v>4.5670266678761644</v>
+      </c>
+      <c r="S86">
+        <v>0.44958983971652627</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="21"/>
+        <v>23.279213439716521</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="22"/>
+        <v>981214.03555219749</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="23"/>
+        <v>22.855362552334554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1018</v>
       </c>
@@ -5552,7 +7130,7 @@
         <v>108.6884787442177</v>
       </c>
       <c r="F87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89625875536892585</v>
       </c>
       <c r="G87">
@@ -5562,39 +7140,57 @@
         <v>16.40720453694918</v>
       </c>
       <c r="J87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981190.43219810352</v>
       </c>
       <c r="K87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>33.541264540465583</v>
       </c>
       <c r="L87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.46275056875</v>
       </c>
       <c r="M87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.030552465235814</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.150600235404454</v>
       </c>
       <c r="O87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.390664305061129</v>
       </c>
       <c r="P87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.31215033331</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.879952229792252</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R87">
+        <v>1.0555066486217579</v>
+      </c>
+      <c r="S87">
+        <v>0.3795706585186806</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="21"/>
+        <v>21.77023496357981</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="22"/>
+        <v>981212.69172099186</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="23"/>
+        <v>22.259522888343781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1019</v>
       </c>
@@ -5611,7 +7207,7 @@
         <v>94.929676263642932</v>
       </c>
       <c r="F88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89612152664316802</v>
       </c>
       <c r="G88">
@@ -5621,39 +7217,57 @@
         <v>16.45013767460205</v>
       </c>
       <c r="J88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981189.73726193758</v>
       </c>
       <c r="K88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.295298094960206</v>
       </c>
       <c r="L88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.04647872003</v>
       </c>
       <c r="M88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.309216782450676</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.612463805573807</v>
       </c>
       <c r="O88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.682834289386399</v>
       </c>
       <c r="P88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981209.43401491444</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19.696752976858988</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R88">
+        <v>8.7896542932927701</v>
+      </c>
+      <c r="S88">
+        <v>0.7751971427611144</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="21"/>
+        <v>19.458031432147514</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="22"/>
+        <v>981210.20921205718</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="23"/>
+        <v>20.471950119594112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1020</v>
       </c>
@@ -5670,7 +7284,7 @@
         <v>91</v>
       </c>
       <c r="F89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89643349789481608</v>
       </c>
       <c r="G89">
@@ -5680,39 +7294,57 @@
         <v>16.482848874399021</v>
       </c>
       <c r="J89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981191.31704580865</v>
       </c>
       <c r="K89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>28.082599999999999</v>
       </c>
       <c r="L89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981217.91568936093</v>
       </c>
       <c r="M89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.5986435522791</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.173153899999999</v>
       </c>
       <c r="O89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17.9094461</v>
       </c>
       <c r="P89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981207.74253546097</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16.425489652319811</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R89">
+        <v>13</v>
+      </c>
+      <c r="S89">
+        <v>0.82766814902506003</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="21"/>
+        <v>18.737114249025062</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="22"/>
+        <v>981208.57020361</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="23"/>
+        <v>17.253157801344059</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1021</v>
       </c>
@@ -5729,7 +7361,7 @@
         <v>90</v>
       </c>
       <c r="F90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89753207226126874</v>
       </c>
       <c r="G90">
@@ -5739,39 +7371,57 @@
         <v>16.48062068616651</v>
       </c>
       <c r="J90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981196.8783486021</v>
       </c>
       <c r="K90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>27.773999999999997</v>
       </c>
       <c r="L90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981223.15565984161</v>
       </c>
       <c r="M90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.277311239507981</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.061360999999998</v>
       </c>
       <c r="O90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17.712638999999999</v>
       </c>
       <c r="P90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.09429884166</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16.215950239566155</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>0.25845866837247972</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="21"/>
+        <v>17.971097668372479</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="22"/>
+        <v>981213.35275751003</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="23"/>
+        <v>16.474408907932229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1022</v>
       </c>
@@ -5788,7 +7438,7 @@
         <v>102</v>
       </c>
       <c r="F91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89627934050884883</v>
       </c>
       <c r="G91">
@@ -5798,39 +7448,57 @@
         <v>16.48420305276294</v>
       </c>
       <c r="J91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981190.53643910063</v>
       </c>
       <c r="K91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>31.4772</v>
       </c>
       <c r="L91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981221.41556214401</v>
       </c>
       <c r="M91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.879123043385334</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.402875799999999</v>
       </c>
       <c r="O91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.0743242</v>
       </c>
       <c r="P91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981210.0126863441</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19.476247243466787</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R91">
+        <v>6.2917319036205299</v>
+      </c>
+      <c r="S91">
+        <v>0.33928999262271869</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="21"/>
+        <v>20.413614192622717</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="22"/>
+        <v>981210.35197633668</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="23"/>
+        <v>19.81553723604884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1023</v>
       </c>
@@ -5847,7 +7515,7 @@
         <v>151.4829426018344</v>
       </c>
       <c r="F92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.895235090001404</v>
       </c>
       <c r="G92">
@@ -5857,39 +7525,57 @@
         <v>16.631163585817731</v>
       </c>
       <c r="J92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.24727031565</v>
       </c>
       <c r="K92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>46.747636086926093</v>
       </c>
       <c r="L92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981230.01695961365</v>
       </c>
       <c r="M92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>44.769689298002049</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16.934717453992612</v>
       </c>
       <c r="O92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29.812918632933481</v>
       </c>
       <c r="P92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.08224215975</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.834971844102256</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R92">
+        <v>14.4104564657365</v>
+      </c>
+      <c r="S92">
+        <v>0.91989466238540907</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="21"/>
+        <v>30.732813295318891</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="22"/>
+        <v>981214.00213682209</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="23"/>
+        <v>28.754866506438702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1024</v>
       </c>
@@ -5906,7 +7592,7 @@
         <v>124.3660625061966</v>
       </c>
       <c r="F93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89602479167309812</v>
       </c>
       <c r="G93">
@@ -5916,39 +7602,57 @@
         <v>16.576851151643279</v>
       </c>
       <c r="J93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981189.24736375676</v>
       </c>
       <c r="K93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>38.379366889412267</v>
       </c>
       <c r="L93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.69172799226</v>
       </c>
       <c r="M93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>36.444364235503599</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13.903242789148985</v>
       </c>
       <c r="O93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.476124100263284</v>
       </c>
       <c r="P93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981211.78848520317</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22.541121446411125</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R93">
+        <v>19.55161628272614</v>
+      </c>
+      <c r="S93">
+        <v>0.82233784807237253</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="21"/>
+        <v>25.298461948335657</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="22"/>
+        <v>981212.61082305119</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="23"/>
+        <v>23.363459294429049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1025</v>
       </c>
@@ -5965,7 +7669,7 @@
         <v>103.4275448685585</v>
       </c>
       <c r="F94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89643301000349362</v>
       </c>
       <c r="G94">
@@ -5975,39 +7679,57 @@
         <v>16.63059345435876</v>
       </c>
       <c r="J94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981191.31457535736</v>
       </c>
       <c r="K94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>31.917740346437153</v>
       </c>
       <c r="L94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981218.23826970637</v>
       </c>
       <c r="M94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26.923694349010475</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.562465180736272</v>
       </c>
       <c r="O94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.355275165700881</v>
       </c>
       <c r="P94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981206.67580452573</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>15.361229168367572</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R94">
+        <v>0.65776687810284784</v>
+      </c>
+      <c r="S94">
+        <v>0.50642818874004958</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="21"/>
+        <v>20.86170335444093</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="22"/>
+        <v>981207.18223271437</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="23"/>
+        <v>15.867657357011922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1026</v>
       </c>
@@ -6024,7 +7746,7 @@
         <v>112.99645179792221</v>
       </c>
       <c r="F95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89582283793001705</v>
       </c>
       <c r="G95">
@@ -6034,39 +7756,57 @@
         <v>16.631707446488271</v>
       </c>
       <c r="J95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981188.22453520377</v>
       </c>
       <c r="K95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>34.870705024838792</v>
       </c>
       <c r="L95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981218.31160063809</v>
       </c>
       <c r="M95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>30.087065434316173</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.632201036199936</v>
       </c>
       <c r="O95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22.238503988638854</v>
       </c>
       <c r="P95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981205.67939960188</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17.454864398110658</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R95">
+        <v>16.213927281084011</v>
+      </c>
+      <c r="S95">
+        <v>0.7536274492890106</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="21"/>
+        <v>22.992131437927867</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="22"/>
+        <v>981206.43302705116</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="23"/>
+        <v>18.208491847384721</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1027</v>
       </c>
@@ -6083,7 +7823,7 @@
         <v>120.6214295041063</v>
       </c>
       <c r="F96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89565737624220287</v>
       </c>
       <c r="G96">
@@ -6093,39 +7833,57 @@
         <v>16.611582450968839</v>
       </c>
       <c r="J96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981187.38645896339</v>
       </c>
       <c r="K96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>37.223773144967204</v>
       </c>
       <c r="L96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981221.40371573658</v>
       </c>
       <c r="M96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>34.017256773193367</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13.484619406409603</v>
       </c>
       <c r="O96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.739153738557601</v>
       </c>
       <c r="P96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981207.91909633018</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20.532637366792187</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R96">
+        <v>5.1335627874715897</v>
+      </c>
+      <c r="S96">
+        <v>0.60261669584114863</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="21"/>
+        <v>24.34177043439875</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="22"/>
+        <v>981208.52171302598</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="23"/>
+        <v>21.135254062595777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1028</v>
       </c>
@@ -6142,7 +7900,7 @@
         <v>123</v>
       </c>
       <c r="F97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89540497534002628</v>
       </c>
       <c r="G97">
@@ -6152,39 +7910,57 @@
         <v>16.553713526370679</v>
       </c>
       <c r="J97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981186.10791145591</v>
       </c>
       <c r="K97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>37.957799999999999</v>
       </c>
       <c r="L97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.1637333188</v>
       </c>
       <c r="M97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>38.05582186288666</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13.750526699999998</v>
       </c>
       <c r="O97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.207273300000001</v>
       </c>
       <c r="P97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981210.41320661886</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24.305295162950642</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R97">
+        <v>0.79953104341340975</v>
+      </c>
+      <c r="S97">
+        <v>0.54543611080624776</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="21"/>
+        <v>24.752709410806251</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="22"/>
+        <v>981210.95864272967</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="23"/>
+        <v>24.850731273763813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1029</v>
       </c>
@@ -6201,7 +7977,7 @@
         <v>106.8516359555027</v>
       </c>
       <c r="F98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89546463665921161</v>
       </c>
       <c r="G98">
@@ -6211,39 +7987,57 @@
         <v>16.497475201578581</v>
       </c>
       <c r="J98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981186.41014119494</v>
       </c>
       <c r="K98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.974414855868133</v>
       </c>
       <c r="L98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981222.13658812747</v>
       </c>
       <c r="M98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.726446932530962</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.945254253209917</v>
       </c>
       <c r="O98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.029160602658216</v>
       </c>
       <c r="P98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981210.19133387425</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23.781192679307424</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R98">
+        <v>7.1172600958477119</v>
+      </c>
+      <c r="S98">
+        <v>0.66504704742351695</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="21"/>
+        <v>21.694207650081729</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="22"/>
+        <v>981210.85638092167</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="23"/>
+        <v>24.446239726734348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1030</v>
       </c>
@@ -6260,7 +8054,7 @@
         <v>128.4148677943721</v>
       </c>
       <c r="F99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89517745356335254</v>
       </c>
       <c r="G99">
@@ -6270,39 +8064,57 @@
         <v>16.509712358510569</v>
       </c>
       <c r="J99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981184.95526888408</v>
       </c>
       <c r="K99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>39.628828201343225</v>
       </c>
       <c r="L99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981227.74756346375</v>
       </c>
       <c r="M99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>42.79229457967449</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.355870473849459</v>
       </c>
       <c r="O99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25.272957727493768</v>
       </c>
       <c r="P99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.39169298997</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.436424105893821</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R99">
+        <v>9.5851322056278718</v>
+      </c>
+      <c r="S99">
+        <v>0.74888937944896028</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="21"/>
+        <v>26.02184710694273</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="22"/>
+        <v>981214.14058236941</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="23"/>
+        <v>29.185313485329971</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1031</v>
       </c>
@@ -6319,7 +8131,7 @@
         <v>96.19065239869451</v>
       </c>
       <c r="F100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89640598549945849</v>
       </c>
       <c r="G100">
@@ -6329,39 +8141,57 @@
         <v>16.542538299508561</v>
       </c>
       <c r="J100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981191.17773520632</v>
       </c>
       <c r="K100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.684435330237125</v>
       </c>
       <c r="L100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981218.75431737024</v>
       </c>
       <c r="M100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.576582163921557</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.753431984542015</v>
       </c>
       <c r="O100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.93100334569511</v>
       </c>
       <c r="P100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981208.00088538567</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16.823150179348886</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R100">
+        <v>0.78886258053229596</v>
+      </c>
+      <c r="S100">
+        <v>0.41505618800044403</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="21"/>
+        <v>19.346059533695556</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="22"/>
+        <v>981208.41594157368</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="23"/>
+        <v>17.238206367357634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1032</v>
       </c>
@@ -6378,7 +8208,7 @@
         <v>105.67563566950351</v>
       </c>
       <c r="F101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89599036719539005</v>
       </c>
       <c r="G101">
@@ -6388,39 +8218,57 @@
         <v>16.510925149257051</v>
       </c>
       <c r="J101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981189.07302166393</v>
       </c>
       <c r="K101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.611501167608779</v>
       </c>
       <c r="L101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981222.05769429274</v>
       </c>
       <c r="M101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.984672628808767</v>
       </c>
       <c r="N101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.813785770837237</v>
       </c>
       <c r="O101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.797715396771544</v>
       </c>
       <c r="P101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981210.24390852184</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.170886857900769</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R101">
+        <v>7.6260213301805777</v>
+      </c>
+      <c r="S101">
+        <v>1.0180823901378739</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="21"/>
+        <v>21.815797786909421</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="22"/>
+        <v>981211.26199091203</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="23"/>
+        <v>22.188969248090871</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>1033</v>
       </c>
@@ -6437,7 +8285,7 @@
         <v>102.5304298896626</v>
       </c>
       <c r="F102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89662404518406458</v>
       </c>
       <c r="G102">
@@ -6447,39 +8295,57 @@
         <v>16.60921233657448</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981192.28184638463</v>
       </c>
       <c r="K102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>31.640890663949875</v>
       </c>
       <c r="L102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981219.82979100314</v>
       </c>
       <c r="M102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.547944618505426</v>
       </c>
       <c r="N102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.462174095612061</v>
       </c>
       <c r="O102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.178716568337812</v>
       </c>
       <c r="P102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981208.36761690758</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16.085770522942767</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R102">
+        <v>2.3022645901910441</v>
+      </c>
+      <c r="S102">
+        <v>0.28229017732989992</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="21"/>
+        <v>20.461006745667717</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="22"/>
+        <v>981208.64990708488</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="23"/>
+        <v>16.368060700246133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>1034</v>
       </c>
@@ -6496,7 +8362,7 @@
         <v>93.97384492652165</v>
       </c>
       <c r="F103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89835915307273406</v>
       </c>
       <c r="G103">
@@ -6506,39 +8372,57 @@
         <v>16.382757998993672</v>
       </c>
       <c r="J103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981201.0634695444</v>
       </c>
       <c r="K103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.000328544324582</v>
       </c>
       <c r="L103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981226.3832192471</v>
       </c>
       <c r="M103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25.319749702699482</v>
       </c>
       <c r="N103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.505608648486142</v>
       </c>
       <c r="O103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.49471989583844</v>
       </c>
       <c r="P103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981215.87761059869</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14.814141054288484</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R103">
+        <v>1.02615507347835</v>
+      </c>
+      <c r="S103">
+        <v>0.41602465929830679</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="21"/>
+        <v>18.910744555136748</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="22"/>
+        <v>981216.29363525799</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="23"/>
+        <v>15.230165713583119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1035</v>
       </c>
@@ -6555,7 +8439,7 @@
         <v>112.65691344468721</v>
       </c>
       <c r="F104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89886219325697447</v>
       </c>
       <c r="G104">
@@ -6565,39 +8449,57 @@
         <v>16.457795233715078</v>
       </c>
       <c r="J104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981203.60814607725</v>
       </c>
       <c r="K104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>34.76592348903047</v>
       </c>
       <c r="L104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981236.52891673637</v>
       </c>
       <c r="M104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.92077065911144</v>
       </c>
       <c r="N104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.594243059030571</v>
       </c>
       <c r="O104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22.171680429999899</v>
       </c>
       <c r="P104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981223.93467367732</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20.326527600060217</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R104">
+        <v>7.4955065511190782</v>
+      </c>
+      <c r="S104">
+        <v>2.0497775160750562</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="21"/>
+        <v>24.221457946074953</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="22"/>
+        <v>981225.98445119348</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="23"/>
+        <v>22.376305116224103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1036</v>
       </c>
@@ -6614,7 +8516,7 @@
         <v>105.4551409246303</v>
       </c>
       <c r="F105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89508721341280495</v>
       </c>
       <c r="G105">
@@ -6624,39 +8526,57 @@
         <v>16.37180831285642</v>
       </c>
       <c r="J105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981184.49807363166</v>
       </c>
       <c r="K105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.543456489340912</v>
       </c>
       <c r="L105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.39330861578</v>
       </c>
       <c r="M105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>39.895234984112903</v>
       </c>
       <c r="N105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.789136023873102</v>
       </c>
       <c r="O105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.75432046546781</v>
       </c>
       <c r="P105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.60417259193</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.106098960270174</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R105">
+        <v>5.4551409246303137</v>
+      </c>
+      <c r="S105">
+        <v>0.61592552631982078</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="21"/>
+        <v>21.37024599178763</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="22"/>
+        <v>981213.22009811818</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="23"/>
+        <v>28.722024486516602</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>1038</v>
       </c>
@@ -6673,7 +8593,7 @@
         <v>108.61741389215599</v>
       </c>
       <c r="F106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89527164875244425</v>
       </c>
       <c r="G106">
@@ -6683,39 +8603,57 @@
         <v>16.37751970857369</v>
       </c>
       <c r="J106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.43248279265</v>
       </c>
       <c r="K106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>33.519333927119341</v>
       </c>
       <c r="L106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.3684453239</v>
       </c>
       <c r="M106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>39.93596253124997</v>
       </c>
       <c r="N106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.142655689504405</v>
       </c>
       <c r="O106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.376678237614936</v>
       </c>
       <c r="P106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.22578963439</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.793306841747835</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R106">
+        <v>2.5778440461908758</v>
+      </c>
+      <c r="S106">
+        <v>0.18245908038108949</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="21"/>
+        <v>21.559137317996022</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="22"/>
+        <v>981213.40824871487</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="23"/>
+        <v>27.975765922223218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>1039</v>
       </c>
@@ -6732,7 +8670,7 @@
         <v>105.87783072695569</v>
       </c>
       <c r="F107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89585575472684065</v>
       </c>
       <c r="G107">
@@ -6742,39 +8680,57 @@
         <v>16.403248969901469</v>
       </c>
       <c r="J107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981188.39125404402</v>
       </c>
       <c r="K107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.673898562338529</v>
       </c>
       <c r="L107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.18561585492</v>
       </c>
       <c r="M107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.794361810898408</v>
       </c>
       <c r="N107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.836389742675484</v>
       </c>
       <c r="O107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.837508819663043</v>
       </c>
       <c r="P107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.34922611224</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23.957972068223171</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R107">
+        <v>1.302883109064169</v>
+      </c>
+      <c r="S107">
+        <v>0.76217123512240226</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="21"/>
+        <v>21.599680054785445</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="22"/>
+        <v>981213.11139734741</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="23"/>
+        <v>24.720143303391524</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>1040</v>
       </c>
@@ -6791,7 +8747,7 @@
         <v>120.3294868603171</v>
       </c>
       <c r="F108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89560302215016752</v>
       </c>
       <c r="G108">
@@ -6801,39 +8757,57 @@
         <v>16.352523358880159</v>
       </c>
       <c r="J108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981187.11113797501</v>
       </c>
       <c r="K108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>37.133679645093856</v>
       </c>
       <c r="L108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981227.57029864355</v>
       </c>
       <c r="M108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>40.459160668542609</v>
       </c>
       <c r="N108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13.451982291626742</v>
       </c>
       <c r="O108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.681697353467115</v>
       </c>
       <c r="P108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981214.1183163519</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.007178376894444</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R108">
+        <v>5.5631803744050359</v>
+      </c>
+      <c r="S108">
+        <v>0.86860796972136234</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="21"/>
+        <v>24.550305323188475</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="22"/>
+        <v>981214.98692432162</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="23"/>
+        <v>27.875786346616223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>1041</v>
       </c>
@@ -6850,7 +8824,7 @@
         <v>95.370038410207826</v>
       </c>
       <c r="F109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89595545651505881</v>
       </c>
       <c r="G109">
@@ -6860,39 +8834,57 @@
         <v>16.407022901935129</v>
       </c>
       <c r="J109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981188.89621450356</v>
       </c>
       <c r="K109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.431193853390134</v>
       </c>
       <c r="L109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.61285054928</v>
       </c>
       <c r="M109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.716636045719497</v>
       </c>
       <c r="N109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.66169316698852</v>
       </c>
       <c r="O109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.769500686401614</v>
       </c>
       <c r="P109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981209.95115738234</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.054942878778093</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R109">
+        <v>0.91030404523174013</v>
+      </c>
+      <c r="S109">
+        <v>0.55298489193416533</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="21"/>
+        <v>19.32248557833578</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="22"/>
+        <v>981210.50414227427</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="23"/>
+        <v>21.6079277707031</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>1042</v>
       </c>
@@ -6909,7 +8901,7 @@
         <v>111.81195767445389</v>
       </c>
       <c r="F110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89617070608811644</v>
       </c>
       <c r="G110">
@@ -6919,39 +8911,57 @@
         <v>16.40436807671469</v>
       </c>
       <c r="J110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981189.9863150398</v>
       </c>
       <c r="K110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>34.505170138336467</v>
       </c>
       <c r="L110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.49213838531</v>
       </c>
       <c r="M110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>35.505823345505632</v>
       </c>
       <c r="N110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.499783003104454</v>
       </c>
       <c r="O110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22.005387135232013</v>
       </c>
       <c r="P110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.99235538219</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23.006040342384949</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R110">
+        <v>2.0679722816144022</v>
+      </c>
+      <c r="S110">
+        <v>0.13645663178742221</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="21"/>
+        <v>22.141843767019438</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="22"/>
+        <v>981213.12881201401</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="23"/>
+        <v>23.142496974207461</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>1043</v>
       </c>
@@ -6968,7 +8978,7 @@
         <v>108.9011322716178</v>
       </c>
       <c r="F111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89541468906406385</v>
       </c>
       <c r="G111">
@@ -6978,39 +8988,57 @@
         <v>16.374289153410871</v>
       </c>
       <c r="J111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981186.15711935947</v>
       </c>
       <c r="K111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>33.60688941902125</v>
       </c>
       <c r="L111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.08020613994</v>
       </c>
       <c r="M111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>38.923086780472659</v>
       </c>
       <c r="N111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.174373389927739</v>
       </c>
       <c r="O111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.432516029093513</v>
       </c>
       <c r="P111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.90583275002</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.748713390552439</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R111">
+        <v>0.58816757806926034</v>
+      </c>
+      <c r="S111">
+        <v>0.18354869052313799</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="21"/>
+        <v>21.616064719616652</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="22"/>
+        <v>981213.08938144054</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="23"/>
+        <v>26.932262081070803</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>1044</v>
       </c>
@@ -7027,7 +9055,7 @@
         <v>96.004929459017404</v>
       </c>
       <c r="F112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89599069363790218</v>
       </c>
       <c r="G112">
@@ -7037,39 +9065,57 @@
         <v>16.43838102561088</v>
       </c>
       <c r="J112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981189.07467493799</v>
       </c>
       <c r="K112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.627121231052769</v>
       </c>
       <c r="L112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.24115105323</v>
       </c>
       <c r="M112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31.166476115235128</v>
       </c>
       <c r="N112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.732669478518986</v>
       </c>
       <c r="O112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.894451752533783</v>
       </c>
       <c r="P112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981209.50848157471</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20.433806636719964</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R112">
+        <v>1.8407754693874101</v>
+      </c>
+      <c r="S112">
+        <v>0.50320530406598596</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="21"/>
+        <v>19.397657056599769</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="22"/>
+        <v>981210.01168687874</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="23"/>
+        <v>20.937011940754019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>1045</v>
       </c>
@@ -7086,7 +9132,7 @@
         <v>93.934680352259477</v>
       </c>
       <c r="F113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89579271025669172</v>
       </c>
       <c r="G113">
@@ -7096,39 +9142,57 @@
         <v>16.416165026812831</v>
       </c>
       <c r="J113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981188.07194075407</v>
       </c>
       <c r="K113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>28.988242356707275</v>
       </c>
       <c r="L113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.50673822348</v>
       </c>
       <c r="M113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.434797469410114</v>
       </c>
       <c r="N113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.501230327152108</v>
       </c>
       <c r="O113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.487012029555167</v>
       </c>
       <c r="P113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981210.00550789631</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.933567142230459</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R113">
+        <v>4.0550988217354984</v>
+      </c>
+      <c r="S113">
+        <v>0.30132769276323867</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="21"/>
+        <v>18.788339722318405</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="22"/>
+        <v>981210.30683558912</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="23"/>
+        <v>22.234894835040905</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1046</v>
       </c>
@@ -7145,7 +9209,7 @@
         <v>105.85607164518299</v>
       </c>
       <c r="F114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89532121344722826</v>
       </c>
       <c r="G114">
@@ -7155,39 +9219,57 @@
         <v>16.407691259267619</v>
       </c>
       <c r="J114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.68358072266</v>
       </c>
       <c r="K114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.667183709703473</v>
       </c>
       <c r="L114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.89078510914</v>
       </c>
       <c r="M114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>39.207204386475496</v>
       </c>
       <c r="N114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.833957231822776</v>
       </c>
       <c r="O114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.833226477880697</v>
       </c>
       <c r="P114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.0568278773</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.373247154639103</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R114">
+        <v>1.8706104984904639</v>
+      </c>
+      <c r="S114">
+        <v>0.60658530434841773</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="21"/>
+        <v>21.439811782229118</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="22"/>
+        <v>981213.66341318167</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="23"/>
+        <v>27.979832459008321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>1047</v>
       </c>
@@ -7204,7 +9286,7 @@
         <v>107.0485528065511</v>
       </c>
       <c r="F115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89524525254523213</v>
       </c>
       <c r="G115">
@@ -7214,39 +9296,57 @@
         <v>16.40571222035047</v>
       </c>
       <c r="J115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.29875568475</v>
       </c>
       <c r="K115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>33.035183396101665</v>
       </c>
       <c r="L115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.38726849773</v>
       </c>
       <c r="M115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>40.088512812973931</v>
       </c>
       <c r="N115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.967268159047485</v>
       </c>
       <c r="O115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.06791523705418</v>
       </c>
       <c r="P115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.42000033869</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.121244653942995</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R115">
+        <v>0.67812933712230006</v>
+      </c>
+      <c r="S115">
+        <v>0.14106138825457201</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="21"/>
+        <v>21.20897662530875</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="22"/>
+        <v>981213.561061727</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="23"/>
+        <v>28.262306042248383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>1088</v>
       </c>
@@ -7263,7 +9363,7 @@
         <v>105.3443196430465</v>
       </c>
       <c r="F116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89514934700451754</v>
       </c>
       <c r="G116">
@@ -7273,39 +9373,57 @@
         <v>16.371884771865851</v>
       </c>
       <c r="J116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981184.81287095463</v>
       </c>
       <c r="K116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.509257041844151</v>
       </c>
       <c r="L116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.12027483969</v>
       </c>
       <c r="M116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>39.307403885060921</v>
       </c>
       <c r="N116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.776746991423131</v>
       </c>
       <c r="O116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.73251005042102</v>
       </c>
       <c r="P116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.34352784825</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.530656893621199</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R116">
+        <v>4.1689625855471633</v>
+      </c>
+      <c r="S116">
+        <v>0.55720166190082565</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="21"/>
+        <v>21.289711712321846</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="22"/>
+        <v>981212.90072951012</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="23"/>
+        <v>28.08785855548922</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>1089</v>
       </c>
@@ -7322,7 +9440,7 @@
         <v>101.1412623800815</v>
       </c>
       <c r="F117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89490174667601041</v>
       </c>
       <c r="G117">
@@ -7332,39 +9450,57 @@
         <v>16.323519673009208</v>
       </c>
       <c r="J117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981183.55836307409</v>
       </c>
       <c r="K117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>31.212193570493149</v>
       </c>
       <c r="L117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981219.59077319095</v>
       </c>
       <c r="M117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>36.032410116866231</v>
       </c>
       <c r="N117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.306875031130211</v>
       </c>
       <c r="O117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.905318539362938</v>
       </c>
       <c r="P117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981208.28389815986</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24.725535085774027</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R117">
+        <v>11.04576871796152</v>
+      </c>
+      <c r="S117">
+        <v>0.64812680186796523</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="21"/>
+        <v>20.553445341230901</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="22"/>
+        <v>981208.93202496169</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="23"/>
+        <v>25.373661887599155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>1090</v>
       </c>
@@ -7381,7 +9517,7 @@
         <v>116.9203973280935</v>
       </c>
       <c r="F118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89511959726855506</v>
       </c>
       <c r="G118">
@@ -7391,39 +9527,57 @@
         <v>16.314121997789272</v>
       </c>
       <c r="J118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981184.66214619123</v>
       </c>
       <c r="K118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>36.081634615449651</v>
       </c>
       <c r="L118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.72571838857</v>
       </c>
       <c r="M118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>40.063572197337635</v>
       </c>
       <c r="N118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13.070870286459822</v>
       </c>
       <c r="O118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.010764328989829</v>
       </c>
       <c r="P118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981211.65484810213</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.992701910901815</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R118">
+        <v>14.70965389596239</v>
+      </c>
+      <c r="S118">
+        <v>0.84033390439388622</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="21"/>
+        <v>23.851098233383716</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="22"/>
+        <v>981212.4951820065</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="23"/>
+        <v>27.833035815274343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>1141</v>
       </c>
@@ -7440,7 +9594,7 @@
         <v>92.085258760438592</v>
       </c>
       <c r="F119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89560532251167113</v>
       </c>
       <c r="G119">
@@ -7450,39 +9604,57 @@
         <v>16.441602407009</v>
       </c>
       <c r="J119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981187.12279018026</v>
       </c>
       <c r="K119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>28.417510853471349</v>
       </c>
       <c r="L119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981219.46009376028</v>
       </c>
       <c r="M119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32.33730358001776</v>
       </c>
       <c r="N119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.294478124079834</v>
       </c>
       <c r="O119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18.123032729391515</v>
       </c>
       <c r="P119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981209.16561563616</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22.042825455893762</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R119">
+        <v>1.0852587604385919</v>
+      </c>
+      <c r="S119">
+        <v>1.4685118297478781</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="21"/>
+        <v>19.591544559139393</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="22"/>
+        <v>981210.63412746589</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="23"/>
+        <v>23.511337285628542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>1142</v>
       </c>
@@ -7499,7 +9671,7 @@
         <v>97</v>
       </c>
       <c r="F120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.8949184064222323</v>
       </c>
       <c r="G120">
@@ -7509,39 +9681,57 @@
         <v>16.396717385673028</v>
       </c>
       <c r="J120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981183.64277668344</v>
       </c>
       <c r="K120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.934199999999997</v>
       </c>
       <c r="L120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981222.12312029931</v>
       </c>
       <c r="M120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>38.48034361586906</v>
       </c>
       <c r="N120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.843911299999998</v>
       </c>
       <c r="O120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.090288699999999</v>
       </c>
       <c r="P120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981211.27920899924</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.636432315804996</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R120">
+        <v>0.19731464841606791</v>
+      </c>
+      <c r="S120">
+        <v>0.14878999626955061</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="21"/>
+        <v>19.239078696269548</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="22"/>
+        <v>981211.42799899552</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="23"/>
+        <v>27.785222312086262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>1143</v>
       </c>
@@ -7558,7 +9748,7 @@
         <v>125.95207021579699</v>
       </c>
       <c r="F121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89524314254241977</v>
       </c>
       <c r="G121">
@@ -7568,39 +9758,57 @@
         <v>16.446944233912639</v>
       </c>
       <c r="J121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.28806603013</v>
       </c>
       <c r="K121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>38.868808868594954</v>
       </c>
       <c r="L121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981230.02309826203</v>
       </c>
       <c r="M121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>44.735032231896184</v>
       </c>
       <c r="N121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14.08054719042757</v>
       </c>
       <c r="O121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.788261678167384</v>
       </c>
       <c r="P121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981215.94255107164</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30.654485041508451</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R121">
+        <v>25.379203810232308</v>
+      </c>
+      <c r="S121">
+        <v>2.0001843559125052</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="21"/>
+        <v>26.788446034079886</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="22"/>
+        <v>981217.94273542752</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="23"/>
+        <v>32.654669397394173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>1144</v>
       </c>
@@ -7617,7 +9825,7 @@
         <v>134.89489285236391</v>
       </c>
       <c r="F122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89527714766991928</v>
       </c>
       <c r="G122">
@@ -7627,39 +9835,57 @@
         <v>16.45867742046579</v>
       </c>
       <c r="J122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.46034093085</v>
       </c>
       <c r="K122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>41.628563934239502</v>
       </c>
       <c r="L122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981232.02399761789</v>
       </c>
       <c r="M122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46.563656687038019</v>
       </c>
       <c r="N122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15.080291267155031</v>
       </c>
       <c r="O122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26.548272667084468</v>
       </c>
       <c r="P122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981216.94370635075</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>31.483365419902839</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R122">
+        <v>0.51619012493421224</v>
+      </c>
+      <c r="S122">
+        <v>0.86973167096574655</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="21"/>
+        <v>27.418004338050217</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="22"/>
+        <v>981217.81343802169</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="23"/>
+        <v>32.353097090846859</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>1145</v>
       </c>
@@ -7676,7 +9902,7 @@
         <v>102.1525705286971</v>
       </c>
       <c r="F123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89555844080031788</v>
       </c>
       <c r="G123">
@@ -7686,39 +9912,57 @@
         <v>16.507723990071941</v>
       </c>
       <c r="J123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981186.88531416445</v>
       </c>
       <c r="K123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>31.524283265155923</v>
       </c>
       <c r="L123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.37501672225</v>
       </c>
       <c r="M123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.489702557795681</v>
       </c>
       <c r="N123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.419932101857581</v>
       </c>
       <c r="O123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.10435116329834</v>
       </c>
       <c r="P123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981208.95508462039</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22.069770455942489</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R123">
+        <v>0.84742947130291668</v>
+      </c>
+      <c r="S123">
+        <v>0.34732477708338338</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="21"/>
+        <v>20.451675940381726</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="22"/>
+        <v>981209.30240939755</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="23"/>
+        <v>22.417095233104192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>1146</v>
       </c>
@@ -7735,7 +9979,7 @@
         <v>104.9400445658594</v>
       </c>
       <c r="F124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89486662231298864</v>
       </c>
       <c r="G124">
@@ -7745,39 +9989,57 @@
         <v>16.435729811794101</v>
       </c>
       <c r="J124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981183.38038870867</v>
       </c>
       <c r="K124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>32.384497753024206</v>
       </c>
       <c r="L124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981224.47665681958</v>
       </c>
       <c r="M124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>41.096268110908568</v>
       </c>
       <c r="N124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.731551908146661</v>
       </c>
       <c r="O124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20.652945844877543</v>
       </c>
       <c r="P124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.7451049115</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29.364716202835552</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R124">
+        <v>10.102607505443061</v>
+      </c>
+      <c r="S124">
+        <v>0.62508010101077838</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="21"/>
+        <v>21.278025945888324</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="22"/>
+        <v>981213.37018501246</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="23"/>
+        <v>29.989796303794719</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>1147</v>
       </c>
@@ -7794,7 +10056,7 @@
         <v>97.920451162962252</v>
       </c>
       <c r="F125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89498968002253254</v>
       </c>
       <c r="G125">
@@ -7804,39 +10066,57 @@
         <v>16.380280993146499</v>
       </c>
       <c r="J125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981184.00390741392</v>
       </c>
       <c r="K125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>30.21825122889015</v>
       </c>
       <c r="L125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981222.33288757876</v>
       </c>
       <c r="M125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>38.32898016483523</v>
       </c>
       <c r="N125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.946811204815921</v>
       </c>
       <c r="O125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.271440024074231</v>
       </c>
       <c r="P125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981211.38607637386</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.382168959942646</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R125">
+        <v>1.8239771976668071</v>
+      </c>
+      <c r="S125">
+        <v>0.17219149842094139</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="21"/>
+        <v>19.443631522495167</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="22"/>
+        <v>981211.55826787231</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="23"/>
+        <v>27.554360458394513</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1148</v>
       </c>
@@ -7853,7 +10133,7 @@
         <v>108.6385570366679</v>
       </c>
       <c r="F126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89518647704965038</v>
       </c>
       <c r="G126">
@@ -7863,39 +10143,57 @@
         <v>16.403297751058592</v>
       </c>
       <c r="J126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.00098473753</v>
       </c>
       <c r="K126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>33.525858701515716</v>
       </c>
       <c r="L126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.99186959688</v>
       </c>
       <c r="M126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>40.990884859347716</v>
       </c>
       <c r="N126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12.14501934294451</v>
       </c>
       <c r="O126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21.380839358571208</v>
       </c>
       <c r="P126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981213.84685025387</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.845865516341291</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R126">
+        <v>0.16412831491425101</v>
+      </c>
+      <c r="S126">
+        <v>0.16797077851341749</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="21"/>
+        <v>21.548810137084622</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="22"/>
+        <v>981214.01482103241</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="23"/>
+        <v>29.013836294878274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1149</v>
       </c>
@@ -7912,7 +10210,7 @@
         <v>97</v>
       </c>
       <c r="F127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89496981843599699</v>
       </c>
       <c r="G127">
@@ -7922,39 +10220,57 @@
         <v>16.384949692092139</v>
       </c>
       <c r="J127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981183.90327339678</v>
       </c>
       <c r="K127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>29.934199999999997</v>
       </c>
       <c r="L127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981222.181342658</v>
       </c>
       <c r="M127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>38.278069261228666</v>
       </c>
       <c r="N127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10.843911299999998</v>
       </c>
       <c r="O127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.090288699999999</v>
       </c>
       <c r="P127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981211.33743135794</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.434157961164601</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R127">
+        <v>0.90352603470455506</v>
+      </c>
+      <c r="S127">
+        <v>0.13799921281858379</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="21"/>
+        <v>19.228287912818583</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="22"/>
+        <v>981211.47543057078</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="23"/>
+        <v>27.572157173999585</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>1150</v>
       </c>
@@ -7971,7 +10287,7 @@
         <v>98.814722379266769</v>
       </c>
       <c r="F128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.894858767486988</v>
       </c>
       <c r="G128">
@@ -7981,39 +10297,57 @@
         <v>16.409115804535968</v>
       </c>
       <c r="J128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981183.34058810677</v>
       </c>
       <c r="K128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>30.494223326241723</v>
       </c>
       <c r="L128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981223.09724437119</v>
       </c>
       <c r="M128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>39.756656264420599</v>
       </c>
       <c r="N128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.046784377473131</v>
       </c>
       <c r="O128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.447438948768593</v>
       </c>
       <c r="P128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981212.05045999377</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28.709871886996552</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R128">
+        <v>0.98590626224437017</v>
+      </c>
+      <c r="S128">
+        <v>0.32598141560614852</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="21"/>
+        <v>19.77342036437474</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="22"/>
+        <v>981212.37644140935</v>
+      </c>
+      <c r="V128">
+        <f t="shared" si="23"/>
+        <v>29.035853302571923</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>1153</v>
       </c>
@@ -8030,7 +10364,7 @@
         <v>118.5724358736807</v>
       </c>
       <c r="F129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89532369125341471</v>
       </c>
       <c r="G129">
@@ -8040,39 +10374,57 @@
         <v>16.500726843438041</v>
       </c>
       <c r="J129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981185.69613330485</v>
       </c>
       <c r="K129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>36.591453710617863</v>
       </c>
       <c r="L129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981225.23793691874</v>
       </c>
       <c r="M129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>39.541803613887168</v>
       </c>
       <c r="N129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13.255556466382798</v>
       </c>
       <c r="O129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.335897244235063</v>
       </c>
       <c r="P129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981211.98238045245</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.286247147596441</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R129">
+        <v>0.42756412631933932</v>
+      </c>
+      <c r="S129">
+        <v>0.30794373165090477</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="21"/>
+        <v>23.643840975885965</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="22"/>
+        <v>981212.29032418411</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="23"/>
+        <v>26.594190879259259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>1154</v>
       </c>
@@ -8089,7 +10441,7 @@
         <v>100.41130616347679</v>
       </c>
       <c r="F130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89562178178957486</v>
       </c>
       <c r="G130">
@@ -8099,39 +10451,57 @@
         <v>16.484176765065961</v>
       </c>
       <c r="J130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>981187.20616233628</v>
       </c>
       <c r="K130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>30.986929082048938</v>
       </c>
       <c r="L130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>981220.49593389186</v>
       </c>
       <c r="M130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>33.28977155557368</v>
       </c>
       <c r="N130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.225271108802943</v>
       </c>
       <c r="O130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.761657973245995</v>
       </c>
       <c r="P130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>981209.27066278306</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22.064500446780585</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R130">
+        <v>20.379038927710429</v>
+      </c>
+      <c r="S130">
+        <v>0.94265021932982784</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="21"/>
+        <v>20.704308192575823</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="22"/>
+        <v>981210.21331300237</v>
+      </c>
+      <c r="V130">
+        <f t="shared" si="23"/>
+        <v>23.007150666089728</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>1155</v>
       </c>
@@ -8148,7 +10518,7 @@
         <v>124.1389862752621</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F151" si="18">RADIANS(G131)</f>
+        <f t="shared" ref="F131:F151" si="24">RADIANS(G131)</f>
         <v>0.89544445822806062</v>
       </c>
       <c r="G131">
@@ -8158,39 +10528,57 @@
         <v>16.478563258028309</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J151" si="19">978032.67715*(1+0.00530244*((SIN(F131))^2)-0.0000058495*(SIN(2*F131))^2)</f>
+        <f t="shared" ref="J131:J151" si="25">978032.67715*(1+0.00530244*((SIN(F131))^2)-0.0000058495*(SIN(2*F131))^2)</f>
         <v>981186.30792305374</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K151" si="20">0.3086*E131</f>
+        <f t="shared" ref="K131:K151" si="26">0.3086*E131</f>
         <v>38.309291164545883</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L151" si="21">D131+K131</f>
+        <f t="shared" ref="L131:L151" si="27">D131+K131</f>
         <v>981228.43446630787</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M151" si="22">L131-J131</f>
+        <f t="shared" ref="M131:M151" si="28">L131-J131</f>
         <v>42.126543254125863</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N151" si="23">0.04187*2.67*E131</f>
+        <f t="shared" ref="N131:N151" si="29">0.04187*2.67*E131</f>
         <v>13.877857278771746</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O151" si="24">K131-N131</f>
+        <f t="shared" ref="O131:O151" si="30">K131-N131</f>
         <v>24.431433885774137</v>
       </c>
       <c r="P131">
-        <f t="shared" ref="P131:P151" si="25">D131+O131</f>
+        <f t="shared" ref="P131:P151" si="31">D131+O131</f>
         <v>981214.55660902918</v>
       </c>
       <c r="Q131">
-        <f t="shared" ref="Q131:Q151" si="26">P131-J131</f>
+        <f t="shared" ref="Q131:Q151" si="32">P131-J131</f>
         <v>28.24868597544264</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R131">
+        <v>2.8610137247378589</v>
+      </c>
+      <c r="S131">
+        <v>0.34596103478420348</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T151" si="33">S131+K131-N131</f>
+        <v>24.77739492055834</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U151" si="34">D131+T131</f>
+        <v>981214.90257006395</v>
+      </c>
+      <c r="V131">
+        <f t="shared" ref="V131:V151" si="35">U131-J131</f>
+        <v>28.594647010206245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1156</v>
       </c>
@@ -8207,7 +10595,7 @@
         <v>135.033956021558</v>
       </c>
       <c r="F132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89505021803474583</v>
       </c>
       <c r="G132">
@@ -8217,39 +10605,57 @@
         <v>16.499295780445021</v>
       </c>
       <c r="J132">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981184.31063398544</v>
       </c>
       <c r="K132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>41.671478828252795</v>
       </c>
       <c r="L132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981230.25328755099</v>
       </c>
       <c r="M132">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>45.942653565551154</v>
       </c>
       <c r="N132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>15.09583754212243</v>
       </c>
       <c r="O132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>26.575641286130363</v>
       </c>
       <c r="P132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981215.15745000879</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>30.846816023346037</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R132">
+        <v>1.5626099706393859</v>
+      </c>
+      <c r="S132">
+        <v>0.25256232613832241</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="33"/>
+        <v>26.828203612268688</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="34"/>
+        <v>981215.41001233493</v>
+      </c>
+      <c r="V132">
+        <f t="shared" si="35"/>
+        <v>31.099378349492326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>1157</v>
       </c>
@@ -8266,7 +10672,7 @@
         <v>132</v>
       </c>
       <c r="F133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89499051388313999</v>
       </c>
       <c r="G133">
@@ -8276,39 +10682,57 @@
         <v>16.5382478145733</v>
       </c>
       <c r="J133">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981184.00813237147</v>
       </c>
       <c r="K133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>40.735199999999999</v>
       </c>
       <c r="L133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981227.7598869158</v>
       </c>
       <c r="M133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43.751754544326104</v>
       </c>
       <c r="N133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>14.756662799999999</v>
       </c>
       <c r="O133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25.978537199999998</v>
       </c>
       <c r="P133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981213.00322411582</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28.995091744349338</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R133">
+        <v>5.9789800837030924</v>
+      </c>
+      <c r="S133">
+        <v>0.49427803718630159</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="33"/>
+        <v>26.472815237186296</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="34"/>
+        <v>981213.49750215304</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="35"/>
+        <v>29.48936978157144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>1158</v>
       </c>
@@ -8325,7 +10749,7 @@
         <v>126.35638314817091</v>
       </c>
       <c r="F134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.8955115306776078</v>
       </c>
       <c r="G134">
@@ -8335,39 +10759,57 @@
         <v>16.55297437308468</v>
       </c>
       <c r="J134">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981186.64768933738</v>
       </c>
       <c r="K134">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>38.993579839525538</v>
       </c>
       <c r="L134">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981225.536261147</v>
       </c>
       <c r="M134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>38.888571809628047</v>
       </c>
       <c r="N134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>14.125746505645154</v>
       </c>
       <c r="O134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>24.867833333880384</v>
       </c>
       <c r="P134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981211.41051464144</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>24.762825304060243</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R134">
+        <v>4.155914191584273</v>
+      </c>
+      <c r="S134">
+        <v>0.79932885439169776</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="33"/>
+        <v>25.66716218827208</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="34"/>
+        <v>981212.20984349586</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="35"/>
+        <v>25.562154158484191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>1159</v>
       </c>
@@ -8384,7 +10826,7 @@
         <v>132.07751177868241</v>
       </c>
       <c r="F135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89494760052823141</v>
       </c>
       <c r="G135">
@@ -8394,39 +10836,57 @@
         <v>16.553777279262508</v>
       </c>
       <c r="J135">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.79069941572</v>
       </c>
       <c r="K135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>40.759120134901387</v>
       </c>
       <c r="L135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981227.34386992361</v>
       </c>
       <c r="M135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43.553170507890172</v>
       </c>
       <c r="N135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>14.765328066523063</v>
       </c>
       <c r="O135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25.993792068378326</v>
       </c>
       <c r="P135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981212.57854185707</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28.787842441350222</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R135">
+        <v>5.5823035988315164</v>
+      </c>
+      <c r="S135">
+        <v>0.53184478712396477</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="33"/>
+        <v>26.525636855502292</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="34"/>
+        <v>981213.11038664426</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="35"/>
+        <v>29.319687228533439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>1160</v>
       </c>
@@ -8443,7 +10903,7 @@
         <v>144</v>
       </c>
       <c r="F136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89513932215033309</v>
       </c>
       <c r="G136">
@@ -8453,39 +10913,57 @@
         <v>16.553675317230439</v>
       </c>
       <c r="J136">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981184.76208101644</v>
       </c>
       <c r="K136">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>44.438400000000001</v>
       </c>
       <c r="L136">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981230.70332060428</v>
       </c>
       <c r="M136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>45.941239587846212</v>
       </c>
       <c r="N136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>16.0981776</v>
       </c>
       <c r="O136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>28.340222400000002</v>
       </c>
       <c r="P136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981214.60514300433</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>29.843061987892725</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R136">
+        <v>5.0944172552590317</v>
+      </c>
+      <c r="S136">
+        <v>0.36118874023552039</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="33"/>
+        <v>28.701411140235521</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="34"/>
+        <v>981214.96633174457</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="35"/>
+        <v>30.204250728129409</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>1161</v>
       </c>
@@ -8502,7 +10980,7 @@
         <v>129</v>
       </c>
       <c r="F137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89489549764671883</v>
       </c>
       <c r="G137">
@@ -8512,39 +10990,57 @@
         <v>16.513477537478689</v>
       </c>
       <c r="J137">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.52669958153</v>
       </c>
       <c r="K137">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>39.809399999999997</v>
       </c>
       <c r="L137">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981228.11806790053</v>
       </c>
       <c r="M137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>44.591368319001049</v>
       </c>
       <c r="N137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>14.421284099999998</v>
       </c>
       <c r="O137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25.388115899999999</v>
       </c>
       <c r="P137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981213.69678380049</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>30.170084218960255</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R137">
+        <v>7.585088693264197E-2</v>
+      </c>
+      <c r="S137">
+        <v>6.0094980409074177E-2</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="33"/>
+        <v>25.448210880409075</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="34"/>
+        <v>981213.7568787809</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="35"/>
+        <v>30.23017919936683</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1163</v>
       </c>
@@ -8561,7 +11057,7 @@
         <v>88.299393897137634</v>
       </c>
       <c r="F138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89747678995013103</v>
       </c>
       <c r="G138">
@@ -8571,39 +11067,57 @@
         <v>16.455741673796911</v>
       </c>
       <c r="J138">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981196.59855857666</v>
       </c>
       <c r="K138">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>27.249192956656671</v>
       </c>
       <c r="L138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981221.75284471526</v>
       </c>
       <c r="M138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>25.154286138596945</v>
       </c>
       <c r="N138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>9.8712453120033175</v>
       </c>
       <c r="O138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>17.377947644653354</v>
       </c>
       <c r="P138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981211.88159940334</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>15.283040826674551</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R138">
+        <v>0.49300790412235068</v>
+      </c>
+      <c r="S138">
+        <v>0.22483645048265741</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="33"/>
+        <v>17.602784095136013</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="34"/>
+        <v>981212.10643585376</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="35"/>
+        <v>15.507877277093939</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>1263</v>
       </c>
@@ -8620,7 +11134,7 @@
         <v>111</v>
       </c>
       <c r="F139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89506246374703524</v>
       </c>
       <c r="G139">
@@ -8630,39 +11144,57 @@
         <v>16.280509594055399</v>
       </c>
       <c r="J139">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981184.37267807103</v>
       </c>
       <c r="K139">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>34.254599999999996</v>
       </c>
       <c r="L139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981220.31744404172</v>
       </c>
       <c r="M139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>35.94476597069297</v>
       </c>
       <c r="N139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>12.409011899999998</v>
       </c>
       <c r="O139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>21.845588100000001</v>
       </c>
       <c r="P139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981207.90843214176</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>23.535754070733674</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R139">
+        <v>3.0944172552426612</v>
+      </c>
+      <c r="S139">
+        <v>0.87595155719053663</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="33"/>
+        <v>22.72153965719054</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="34"/>
+        <v>981208.78438369895</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="35"/>
+        <v>24.411705627921037</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1264</v>
       </c>
@@ -8679,7 +11211,7 @@
         <v>113.596284180685</v>
       </c>
       <c r="F140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89474351986967537</v>
       </c>
       <c r="G140">
@@ -8689,39 +11221,57 @@
         <v>16.252226998027041</v>
       </c>
       <c r="J140">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981182.75660983927</v>
       </c>
       <c r="K140">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>35.055813298159393</v>
       </c>
       <c r="L140">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981216.58374684094</v>
       </c>
       <c r="M140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>33.827137001673691</v>
       </c>
       <c r="N140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>12.699258037782899</v>
       </c>
       <c r="O140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>22.356555260376496</v>
       </c>
       <c r="P140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981203.8844888031</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>21.127878963830881</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R140">
+        <v>7.7572109146876764</v>
+      </c>
+      <c r="S140">
+        <v>1.249796018659139</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="33"/>
+        <v>23.606351279035636</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="34"/>
+        <v>981205.1342848218</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="35"/>
+        <v>22.37767498253379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>1268</v>
       </c>
@@ -8738,7 +11288,7 @@
         <v>128.5377385208314</v>
       </c>
       <c r="F141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89515634248644704</v>
       </c>
       <c r="G141">
@@ -8748,39 +11298,57 @@
         <v>16.24464997849438</v>
       </c>
       <c r="J141">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981184.84831274417</v>
       </c>
       <c r="K141">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>39.666746107528567</v>
       </c>
       <c r="L141">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981224.44886296091</v>
       </c>
       <c r="M141">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>39.600550216739066</v>
       </c>
       <c r="N141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>14.36960654868545</v>
       </c>
       <c r="O141">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25.297139558843117</v>
       </c>
       <c r="P141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981210.07925641222</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>25.230943668051623</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R141">
+        <v>5.6369523167839191</v>
+      </c>
+      <c r="S141">
+        <v>0.45135517391264879</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="33"/>
+        <v>25.748494732755763</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="34"/>
+        <v>981210.53061158617</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="35"/>
+        <v>25.682298842002638</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>1276</v>
       </c>
@@ -8797,7 +11365,7 @@
         <v>105.95734749964871</v>
       </c>
       <c r="F142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89484321394687483</v>
       </c>
       <c r="G142">
@@ -8807,39 +11375,57 @@
         <v>16.276011478450901</v>
       </c>
       <c r="J142">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.26177752402</v>
       </c>
       <c r="K142">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>32.698437438391586</v>
       </c>
       <c r="L142">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981217.18796267209</v>
       </c>
       <c r="M142">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>33.926185148069635</v>
       </c>
       <c r="N142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>11.845279153293477</v>
       </c>
       <c r="O142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>20.853158285098111</v>
       </c>
       <c r="P142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981205.34268351889</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>22.080905994866043</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R142">
+        <v>22.443452469976421</v>
+      </c>
+      <c r="S142">
+        <v>0.90253047167418121</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="33"/>
+        <v>21.755688756772294</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="34"/>
+        <v>981206.24521399057</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="35"/>
+        <v>22.983436466543935</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>1294</v>
       </c>
@@ -8856,7 +11442,7 @@
         <v>121.03696214997029</v>
       </c>
       <c r="F143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89480653884419603</v>
       </c>
       <c r="G143">
@@ -8866,39 +11452,57 @@
         <v>16.541566250835391</v>
       </c>
       <c r="J143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.07594078581</v>
       </c>
       <c r="K143">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>37.352006519480831</v>
       </c>
       <c r="L143">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981224.77812134498</v>
       </c>
       <c r="M143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>41.702180559164844</v>
       </c>
       <c r="N143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>13.531073005935413</v>
       </c>
       <c r="O143">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>23.82093351354542</v>
       </c>
       <c r="P143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981211.24704833911</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28.17110755329486</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R143">
+        <v>4.9840577663265577</v>
+      </c>
+      <c r="S143">
+        <v>1.1988565252370309</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="33"/>
+        <v>25.019790038782453</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="34"/>
+        <v>981212.44590486435</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="35"/>
+        <v>29.369964078534395</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1299</v>
       </c>
@@ -8915,7 +11519,7 @@
         <v>137.17343436136429</v>
       </c>
       <c r="F144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89486892931010265</v>
       </c>
       <c r="G144">
@@ -8925,39 +11529,57 @@
         <v>16.569686166079801</v>
       </c>
       <c r="J144">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.39207829535</v>
       </c>
       <c r="K144">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>42.331721843917016</v>
       </c>
       <c r="L144">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981228.83528955234</v>
       </c>
       <c r="M144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>45.443211256992072</v>
       </c>
       <c r="N144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>15.335016030216559</v>
       </c>
       <c r="O144">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>26.996705813700459</v>
       </c>
       <c r="P144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981213.50027352211</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>30.108195226755925</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R144">
+        <v>3.1443871226801998</v>
+      </c>
+      <c r="S144">
+        <v>0.80070189144964388</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="33"/>
+        <v>27.7974077051501</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="34"/>
+        <v>981214.30097541353</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="35"/>
+        <v>30.908897118177265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>1308</v>
       </c>
@@ -8974,7 +11596,7 @@
         <v>134.88865555613009</v>
       </c>
       <c r="F145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89490368859916347</v>
       </c>
       <c r="G145">
@@ -8984,39 +11606,57 @@
         <v>16.606668071646631</v>
       </c>
       <c r="J145">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.5682026759</v>
       </c>
       <c r="K145">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>41.626639104621745</v>
       </c>
       <c r="L145">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981226.87809930334</v>
       </c>
       <c r="M145">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43.309896627441049</v>
       </c>
       <c r="N145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>15.079593981720894</v>
       </c>
       <c r="O145">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>26.547045122900851</v>
       </c>
       <c r="P145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981211.79850532173</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28.23030264582485</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R145">
+        <v>2.4364383773361742</v>
+      </c>
+      <c r="S145">
+        <v>0.40941431398181222</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="33"/>
+        <v>26.956459436882664</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="34"/>
+        <v>981212.20791963569</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="35"/>
+        <v>28.639716959791258</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1317</v>
       </c>
@@ -9033,7 +11673,7 @@
         <v>143</v>
       </c>
       <c r="F146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89488902390130876</v>
       </c>
       <c r="G146">
@@ -9043,39 +11683,57 @@
         <v>16.62642231193071</v>
       </c>
       <c r="J146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.49389737321</v>
       </c>
       <c r="K146">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>44.129799999999996</v>
       </c>
       <c r="L146">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981228.45324743132</v>
       </c>
       <c r="M146">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>44.959350058110431</v>
       </c>
       <c r="N146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>15.986384699999999</v>
       </c>
       <c r="O146">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>28.143415299999997</v>
       </c>
       <c r="P146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981212.46686273126</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28.972965358057991</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>9.8712259145673997E-2</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="33"/>
+        <v>28.242127559145668</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="34"/>
+        <v>981212.56557499047</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="35"/>
+        <v>29.071677617263049</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>3235</v>
       </c>
@@ -9092,7 +11750,7 @@
         <v>97.524618139312224</v>
       </c>
       <c r="F147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89503959232565655</v>
       </c>
       <c r="G147">
@@ -9102,39 +11760,57 @@
         <v>16.395478540465191</v>
       </c>
       <c r="J147">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981184.25679753383</v>
       </c>
       <c r="K147">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>30.09609715779175</v>
       </c>
       <c r="L147">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981222.755535756</v>
       </c>
       <c r="M147">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>38.498738222173415</v>
       </c>
       <c r="N147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>10.902559883186317</v>
       </c>
       <c r="O147">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>19.193537274605433</v>
       </c>
       <c r="P147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981211.85297587281</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>27.596178338979371</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R147">
+        <v>1.524618139312224</v>
+      </c>
+      <c r="S147">
+        <v>0.56791388315843194</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="33"/>
+        <v>19.761451157763865</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="34"/>
+        <v>981212.42088975594</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="35"/>
+        <v>28.164092222112231</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>3237</v>
       </c>
@@ -9151,7 +11827,7 @@
         <v>96.732613974313054</v>
       </c>
       <c r="F148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89494363097135943</v>
       </c>
       <c r="G148">
@@ -9161,39 +11837,57 @@
         <v>16.405766918414891</v>
       </c>
       <c r="J148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.7705862989</v>
       </c>
       <c r="K148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>29.851684672473006</v>
       </c>
       <c r="L148">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981222.22190263309</v>
       </c>
       <c r="M148">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>38.451316334190778</v>
       </c>
       <c r="N148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>10.81401944076898</v>
       </c>
       <c r="O148">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>19.037665231704025</v>
       </c>
       <c r="P148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981211.4078831923</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>27.637296893401071</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R148">
+        <v>7.0071377270878088E-2</v>
+      </c>
+      <c r="S148">
+        <v>0.1562841812312073</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="33"/>
+        <v>19.193949412935233</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="34"/>
+        <v>981211.56416737346</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="35"/>
+        <v>27.793581074569374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>3307</v>
       </c>
@@ -9210,7 +11904,7 @@
         <v>105.86645671718721</v>
       </c>
       <c r="F149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89487138444024583</v>
       </c>
       <c r="G149">
@@ -9220,39 +11914,57 @@
         <v>16.43053784007423</v>
       </c>
       <c r="J149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.40451846155</v>
       </c>
       <c r="K149">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>32.670388542923973</v>
       </c>
       <c r="L149">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981224.79933827312</v>
       </c>
       <c r="M149">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>41.394819811568595</v>
       </c>
       <c r="N149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>11.835118209138836</v>
       </c>
       <c r="O149">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>20.835270333785139</v>
       </c>
       <c r="P149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981212.96422006399</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>29.559701602440327</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R149">
+        <v>11.02901965677094</v>
+      </c>
+      <c r="S149">
+        <v>0.72549570666729535</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="33"/>
+        <v>21.560766040452435</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="34"/>
+        <v>981213.68971577066</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="35"/>
+        <v>30.285197309101932</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>3312</v>
       </c>
@@ -9269,7 +11981,7 @@
         <v>123</v>
       </c>
       <c r="F150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.8948264624894301</v>
       </c>
       <c r="G150">
@@ -9279,39 +11991,57 @@
         <v>16.483373543760319</v>
       </c>
       <c r="J150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.17689643404</v>
       </c>
       <c r="K150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>37.957799999999999</v>
       </c>
       <c r="L150">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981227.82024366048</v>
       </c>
       <c r="M150">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>44.643347226432525</v>
       </c>
       <c r="N150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>13.750526699999998</v>
       </c>
       <c r="O150">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>24.207273300000001</v>
       </c>
       <c r="P150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981214.06971696054</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>30.892820526496507</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>0.39548675650679471</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="33"/>
+        <v>24.602760056506792</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="34"/>
+        <v>981214.465203717</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="35"/>
+        <v>31.288307282957248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>3314</v>
       </c>
@@ -9328,7 +12058,7 @@
         <v>123.7213416400155</v>
       </c>
       <c r="F151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.89484480204366945</v>
       </c>
       <c r="G151">
@@ -9338,36 +12068,54 @@
         <v>16.481584765674469</v>
       </c>
       <c r="J151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>981183.26982451591</v>
       </c>
       <c r="K151">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>38.180406030108777</v>
       </c>
       <c r="L151">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>981228.07204038324</v>
       </c>
       <c r="M151">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>44.802215867326595</v>
       </c>
       <c r="N151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>13.831167573828086</v>
       </c>
       <c r="O151">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>24.349238456280691</v>
       </c>
       <c r="P151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>981214.24087280931</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>30.971048293402418</v>
+      </c>
+      <c r="R151">
+        <v>1.2786583599845469</v>
+      </c>
+      <c r="S151">
+        <v>0.31519923973789432</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="33"/>
+        <v>24.664437696018584</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="34"/>
+        <v>981214.55607204908</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="35"/>
+        <v>31.286247533163987</v>
       </c>
     </row>
   </sheetData>

--- a/sem5/geofizyka-l/dane5.xlsx
+++ b/sem5/geofizyka-l/dane5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciejklossek/Documents/studia/sem5/geofizyka-l/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1DFA5-C643-BC47-8622-51B8C215A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9063DC1-A9EC-C04D-864B-7AB450167792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="28480" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane5" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>delta gb</t>
   </si>
   <si>
-    <t>Roznica h</t>
-  </si>
-  <si>
     <t>poprawka</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>delta g0''</t>
+  </si>
+  <si>
+    <t>Roznica ostatniego h</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -553,19 +553,19 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="T1" t="s">
         <v>16</v>
       </c>
       <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
